--- a/breeding_patterns - win, sum/litter size/EP - Litter_Sizes_born_sum_win_By_parent_Birth_Month.xlsx
+++ b/breeding_patterns - win, sum/litter size/EP - Litter_Sizes_born_sum_win_By_parent_Birth_Month.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
   <si>
     <t xml:space="preserve">BirthYear</t>
   </si>
@@ -159,15 +159,6 @@
     <t xml:space="preserve">272</t>
   </si>
   <si>
-    <t xml:space="preserve">277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">293</t>
-  </si>
-  <si>
     <t xml:space="preserve">X1259</t>
   </si>
   <si>
@@ -193,9 +184,6 @@
   </si>
   <si>
     <t xml:space="preserve">191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">298</t>
   </si>
   <si>
     <t xml:space="preserve">X1136</t>
@@ -321,12 +309,6 @@
     <t xml:space="preserve">268</t>
   </si>
   <si>
-    <t xml:space="preserve">282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">281</t>
-  </si>
-  <si>
     <t xml:space="preserve">52</t>
   </si>
   <si>
@@ -334,9 +316,6 @@
   </si>
   <si>
     <t xml:space="preserve">276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">286</t>
   </si>
   <si>
     <t xml:space="preserve">X1133</t>
@@ -438,9 +417,6 @@
     <t xml:space="preserve">267</t>
   </si>
   <si>
-    <t xml:space="preserve">280</t>
-  </si>
-  <si>
     <t xml:space="preserve">X1289</t>
   </si>
   <si>
@@ -504,12 +480,6 @@
     <t xml:space="preserve">264</t>
   </si>
   <si>
-    <t xml:space="preserve">279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">285</t>
-  </si>
-  <si>
     <t xml:space="preserve">136</t>
   </si>
   <si>
@@ -520,9 +490,6 @@
   </si>
   <si>
     <t xml:space="preserve">275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">287</t>
   </si>
 </sst>
 </file>
@@ -4039,91 +4006,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B188" t="n">
-        <v>1</v>
-      </c>
-      <c r="C188" s="1" t="n">
-        <v>44927</v>
-      </c>
-      <c r="D188" t="s">
-        <v>45</v>
-      </c>
-      <c r="E188" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B189" t="n">
-        <v>2</v>
-      </c>
-      <c r="C189" s="1" t="n">
-        <v>44959</v>
-      </c>
-      <c r="D189" t="s">
-        <v>45</v>
-      </c>
-      <c r="E189" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B190" t="n">
-        <v>11</v>
-      </c>
-      <c r="C190" s="1" t="n">
-        <v>45250</v>
-      </c>
-      <c r="D190" t="s">
-        <v>46</v>
-      </c>
-      <c r="E190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B191" t="n">
-        <v>11</v>
-      </c>
-      <c r="C191" s="1" t="n">
-        <v>45599</v>
-      </c>
-      <c r="D191" t="s">
-        <v>47</v>
-      </c>
-      <c r="E191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B192" t="n">
-        <v>11</v>
-      </c>
-      <c r="C192" s="1" t="n">
-        <v>45624</v>
-      </c>
-      <c r="D192" t="s">
-        <v>48</v>
-      </c>
-      <c r="E192" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -4319,7 +4201,7 @@
         <v>36676</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -4404,7 +4286,7 @@
         <v>36998</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -4438,7 +4320,7 @@
         <v>37033</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E18" t="n">
         <v>3</v>
@@ -4489,7 +4371,7 @@
         <v>37064</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E21" t="n">
         <v>2</v>
@@ -5458,7 +5340,7 @@
         <v>38938</v>
       </c>
       <c r="D78" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E78" t="n">
         <v>1</v>
@@ -5577,7 +5459,7 @@
         <v>39186</v>
       </c>
       <c r="D85" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E85" t="n">
         <v>1</v>
@@ -5662,7 +5544,7 @@
         <v>39218</v>
       </c>
       <c r="D90" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E90" t="n">
         <v>3</v>
@@ -6053,7 +5935,7 @@
         <v>39711</v>
       </c>
       <c r="D113" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E113" t="n">
         <v>1</v>
@@ -6121,7 +6003,7 @@
         <v>40372</v>
       </c>
       <c r="D117" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E117" t="n">
         <v>1</v>
@@ -6138,7 +6020,7 @@
         <v>40376</v>
       </c>
       <c r="D118" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E118" t="n">
         <v>3</v>
@@ -6818,7 +6700,7 @@
         <v>41389</v>
       </c>
       <c r="D158" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E158" t="n">
         <v>2</v>
@@ -6852,7 +6734,7 @@
         <v>41420</v>
       </c>
       <c r="D160" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E160" t="n">
         <v>4</v>
@@ -6869,7 +6751,7 @@
         <v>41420</v>
       </c>
       <c r="D161" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E161" t="n">
         <v>3</v>
@@ -6886,7 +6768,7 @@
         <v>41432</v>
       </c>
       <c r="D162" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E162" t="n">
         <v>2</v>
@@ -6920,7 +6802,7 @@
         <v>41449</v>
       </c>
       <c r="D164" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E164" t="n">
         <v>2</v>
@@ -6937,7 +6819,7 @@
         <v>41450</v>
       </c>
       <c r="D165" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E165" t="n">
         <v>2</v>
@@ -6971,7 +6853,7 @@
         <v>41485</v>
       </c>
       <c r="D167" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E167" t="n">
         <v>2</v>
@@ -7005,7 +6887,7 @@
         <v>41511</v>
       </c>
       <c r="D169" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E169" t="n">
         <v>1</v>
@@ -7056,7 +6938,7 @@
         <v>41547</v>
       </c>
       <c r="D172" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E172" t="n">
         <v>2</v>
@@ -7468,57 +7350,6 @@
       </c>
       <c r="E196" t="n">
         <v>3</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B197" t="n">
-        <v>6</v>
-      </c>
-      <c r="C197" s="1" t="n">
-        <v>45078</v>
-      </c>
-      <c r="D197" t="s">
-        <v>46</v>
-      </c>
-      <c r="E197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B198" t="n">
-        <v>7</v>
-      </c>
-      <c r="C198" s="1" t="n">
-        <v>45110</v>
-      </c>
-      <c r="D198" t="s">
-        <v>46</v>
-      </c>
-      <c r="E198" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B199" t="n">
-        <v>9</v>
-      </c>
-      <c r="C199" s="1" t="n">
-        <v>45558</v>
-      </c>
-      <c r="D199" t="s">
-        <v>58</v>
-      </c>
-      <c r="E199" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -7563,7 +7394,7 @@
         <v>35520</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E2" t="n">
         <v>3</v>
@@ -7580,7 +7411,7 @@
         <v>35704</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -7597,7 +7428,7 @@
         <v>35726</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
@@ -7614,7 +7445,7 @@
         <v>35730</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E5" t="n">
         <v>3</v>
@@ -7631,7 +7462,7 @@
         <v>35758</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E6" t="n">
         <v>3</v>
@@ -7648,7 +7479,7 @@
         <v>35779</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
@@ -7665,7 +7496,7 @@
         <v>35801</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E8" t="n">
         <v>3</v>
@@ -7682,7 +7513,7 @@
         <v>35805</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
@@ -7699,7 +7530,7 @@
         <v>35821</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -7716,7 +7547,7 @@
         <v>35821</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -7733,7 +7564,7 @@
         <v>35846</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -7750,7 +7581,7 @@
         <v>35857</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E13" t="n">
         <v>2</v>
@@ -7767,7 +7598,7 @@
         <v>35875</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E14" t="n">
         <v>2</v>
@@ -7784,7 +7615,7 @@
         <v>35885</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E15" t="n">
         <v>3</v>
@@ -7801,7 +7632,7 @@
         <v>36081</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E16" t="n">
         <v>2</v>
@@ -7818,7 +7649,7 @@
         <v>36110</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E17" t="n">
         <v>2</v>
@@ -7835,7 +7666,7 @@
         <v>36140</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E18" t="n">
         <v>2</v>
@@ -7852,7 +7683,7 @@
         <v>36170</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E19" t="n">
         <v>3</v>
@@ -7869,7 +7700,7 @@
         <v>36199</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E20" t="n">
         <v>3</v>
@@ -7886,7 +7717,7 @@
         <v>36228</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E21" t="n">
         <v>6</v>
@@ -7903,7 +7734,7 @@
         <v>36524</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -7920,7 +7751,7 @@
         <v>37248</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -7937,7 +7768,7 @@
         <v>37277</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E24" t="n">
         <v>3</v>
@@ -7954,7 +7785,7 @@
         <v>37308</v>
       </c>
       <c r="D25" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E25" t="n">
         <v>3</v>
@@ -7971,7 +7802,7 @@
         <v>37334</v>
       </c>
       <c r="D26" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E26" t="n">
         <v>3</v>
@@ -7988,7 +7819,7 @@
         <v>37540</v>
       </c>
       <c r="D27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E27" t="n">
         <v>3</v>
@@ -8005,7 +7836,7 @@
         <v>37580</v>
       </c>
       <c r="D28" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E28" t="n">
         <v>3</v>
@@ -8022,7 +7853,7 @@
         <v>37586</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
@@ -8039,7 +7870,7 @@
         <v>37591</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
@@ -8056,7 +7887,7 @@
         <v>37591</v>
       </c>
       <c r="D31" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E31" t="n">
         <v>2</v>
@@ -8073,7 +7904,7 @@
         <v>37607</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E32" t="n">
         <v>2</v>
@@ -8090,7 +7921,7 @@
         <v>37612</v>
       </c>
       <c r="D33" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E33" t="n">
         <v>2</v>
@@ -8107,7 +7938,7 @@
         <v>37620</v>
       </c>
       <c r="D34" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E34" t="n">
         <v>2</v>
@@ -8124,7 +7955,7 @@
         <v>37620</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E35" t="n">
         <v>3</v>
@@ -8141,7 +7972,7 @@
         <v>37620</v>
       </c>
       <c r="D36" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E36" t="n">
         <v>1</v>
@@ -8158,7 +7989,7 @@
         <v>37621</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E37" t="n">
         <v>3</v>
@@ -8175,7 +8006,7 @@
         <v>37642</v>
       </c>
       <c r="D38" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E38" t="n">
         <v>2</v>
@@ -8192,7 +8023,7 @@
         <v>37646</v>
       </c>
       <c r="D39" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E39" t="n">
         <v>4</v>
@@ -8209,7 +8040,7 @@
         <v>37648</v>
       </c>
       <c r="D40" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E40" t="n">
         <v>3</v>
@@ -8226,7 +8057,7 @@
         <v>37652</v>
       </c>
       <c r="D41" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E41" t="n">
         <v>2</v>
@@ -8243,7 +8074,7 @@
         <v>37652</v>
       </c>
       <c r="D42" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E42" t="n">
         <v>2</v>
@@ -8260,7 +8091,7 @@
         <v>37663</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E43" t="n">
         <v>3</v>
@@ -8277,7 +8108,7 @@
         <v>37663</v>
       </c>
       <c r="D44" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E44" t="n">
         <v>2</v>
@@ -8294,7 +8125,7 @@
         <v>37670</v>
       </c>
       <c r="D45" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E45" t="n">
         <v>2</v>
@@ -8311,7 +8142,7 @@
         <v>37671</v>
       </c>
       <c r="D46" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E46" t="n">
         <v>2</v>
@@ -8328,7 +8159,7 @@
         <v>37674</v>
       </c>
       <c r="D47" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E47" t="n">
         <v>3</v>
@@ -8345,7 +8176,7 @@
         <v>37680</v>
       </c>
       <c r="D48" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E48" t="n">
         <v>2</v>
@@ -8362,7 +8193,7 @@
         <v>37682</v>
       </c>
       <c r="D49" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E49" t="n">
         <v>3</v>
@@ -8379,7 +8210,7 @@
         <v>37684</v>
       </c>
       <c r="D50" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E50" t="n">
         <v>4</v>
@@ -8396,7 +8227,7 @@
         <v>37693</v>
       </c>
       <c r="D51" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E51" t="n">
         <v>1</v>
@@ -8413,7 +8244,7 @@
         <v>37700</v>
       </c>
       <c r="D52" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E52" t="n">
         <v>3</v>
@@ -8430,7 +8261,7 @@
         <v>37703</v>
       </c>
       <c r="D53" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E53" t="n">
         <v>3</v>
@@ -8447,7 +8278,7 @@
         <v>37711</v>
       </c>
       <c r="D54" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E54" t="n">
         <v>1</v>
@@ -8464,7 +8295,7 @@
         <v>37900</v>
       </c>
       <c r="D55" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -8481,7 +8312,7 @@
         <v>37902</v>
       </c>
       <c r="D56" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E56" t="n">
         <v>1</v>
@@ -8498,7 +8329,7 @@
         <v>37907</v>
       </c>
       <c r="D57" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E57" t="n">
         <v>1</v>
@@ -8515,7 +8346,7 @@
         <v>37910</v>
       </c>
       <c r="D58" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E58" t="n">
         <v>3</v>
@@ -8532,7 +8363,7 @@
         <v>37921</v>
       </c>
       <c r="D59" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E59" t="n">
         <v>3</v>
@@ -8549,7 +8380,7 @@
         <v>37932</v>
       </c>
       <c r="D60" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E60" t="n">
         <v>2</v>
@@ -8566,7 +8397,7 @@
         <v>37936</v>
       </c>
       <c r="D61" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E61" t="n">
         <v>2</v>
@@ -8583,7 +8414,7 @@
         <v>37938</v>
       </c>
       <c r="D62" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E62" t="n">
         <v>3</v>
@@ -8600,7 +8431,7 @@
         <v>37943</v>
       </c>
       <c r="D63" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E63" t="n">
         <v>1</v>
@@ -8617,7 +8448,7 @@
         <v>37962</v>
       </c>
       <c r="D64" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E64" t="n">
         <v>2</v>
@@ -8634,7 +8465,7 @@
         <v>37967</v>
       </c>
       <c r="D65" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E65" t="n">
         <v>2</v>
@@ -8651,7 +8482,7 @@
         <v>37969</v>
       </c>
       <c r="D66" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E66" t="n">
         <v>2</v>
@@ -8668,7 +8499,7 @@
         <v>37970</v>
       </c>
       <c r="D67" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E67" t="n">
         <v>2</v>
@@ -8685,7 +8516,7 @@
         <v>37997</v>
       </c>
       <c r="D68" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E68" t="n">
         <v>1</v>
@@ -8702,7 +8533,7 @@
         <v>37998</v>
       </c>
       <c r="D69" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -8719,7 +8550,7 @@
         <v>38027</v>
       </c>
       <c r="D70" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E70" t="n">
         <v>1</v>
@@ -8736,7 +8567,7 @@
         <v>38029</v>
       </c>
       <c r="D71" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E71" t="n">
         <v>4</v>
@@ -8753,7 +8584,7 @@
         <v>38054</v>
       </c>
       <c r="D72" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E72" t="n">
         <v>2</v>
@@ -8770,7 +8601,7 @@
         <v>38059</v>
       </c>
       <c r="D73" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E73" t="n">
         <v>3</v>
@@ -8787,7 +8618,7 @@
         <v>38442</v>
       </c>
       <c r="D74" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E74" t="n">
         <v>1</v>
@@ -8804,7 +8635,7 @@
         <v>38626</v>
       </c>
       <c r="D75" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E75" t="n">
         <v>2</v>
@@ -8821,7 +8652,7 @@
         <v>38641</v>
       </c>
       <c r="D76" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E76" t="n">
         <v>1</v>
@@ -8838,7 +8669,7 @@
         <v>38651</v>
       </c>
       <c r="D77" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E77" t="n">
         <v>2</v>
@@ -8855,7 +8686,7 @@
         <v>38657</v>
       </c>
       <c r="D78" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E78" t="n">
         <v>2</v>
@@ -8872,7 +8703,7 @@
         <v>38659</v>
       </c>
       <c r="D79" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E79" t="n">
         <v>2</v>
@@ -8889,7 +8720,7 @@
         <v>38661</v>
       </c>
       <c r="D80" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E80" t="n">
         <v>3</v>
@@ -8906,7 +8737,7 @@
         <v>38669</v>
       </c>
       <c r="D81" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E81" t="n">
         <v>2</v>
@@ -8923,7 +8754,7 @@
         <v>38681</v>
       </c>
       <c r="D82" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E82" t="n">
         <v>1</v>
@@ -8940,7 +8771,7 @@
         <v>38688</v>
       </c>
       <c r="D83" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E83" t="n">
         <v>1</v>
@@ -8957,7 +8788,7 @@
         <v>38689</v>
       </c>
       <c r="D84" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E84" t="n">
         <v>3</v>
@@ -8974,7 +8805,7 @@
         <v>38693</v>
       </c>
       <c r="D85" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E85" t="n">
         <v>2</v>
@@ -8991,7 +8822,7 @@
         <v>38701</v>
       </c>
       <c r="D86" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E86" t="n">
         <v>3</v>
@@ -9008,7 +8839,7 @@
         <v>38712</v>
       </c>
       <c r="D87" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E87" t="n">
         <v>2</v>
@@ -9025,7 +8856,7 @@
         <v>38718</v>
       </c>
       <c r="D88" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E88" t="n">
         <v>1</v>
@@ -9042,7 +8873,7 @@
         <v>38721</v>
       </c>
       <c r="D89" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E89" t="n">
         <v>2</v>
@@ -9059,7 +8890,7 @@
         <v>38743</v>
       </c>
       <c r="D90" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E90" t="n">
         <v>2</v>
@@ -9076,7 +8907,7 @@
         <v>38750</v>
       </c>
       <c r="D91" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E91" t="n">
         <v>1</v>
@@ -9093,7 +8924,7 @@
         <v>38801</v>
       </c>
       <c r="D92" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E92" t="n">
         <v>3</v>
@@ -9110,7 +8941,7 @@
         <v>38805</v>
       </c>
       <c r="D93" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E93" t="n">
         <v>1</v>
@@ -9127,7 +8958,7 @@
         <v>39008</v>
       </c>
       <c r="D94" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E94" t="n">
         <v>3</v>
@@ -9144,7 +8975,7 @@
         <v>39018</v>
       </c>
       <c r="D95" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E95" t="n">
         <v>3</v>
@@ -9161,7 +8992,7 @@
         <v>39049</v>
       </c>
       <c r="D96" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E96" t="n">
         <v>2</v>
@@ -9178,7 +9009,7 @@
         <v>39061</v>
       </c>
       <c r="D97" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E97" t="n">
         <v>3</v>
@@ -9195,7 +9026,7 @@
         <v>39093</v>
       </c>
       <c r="D98" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E98" t="n">
         <v>2</v>
@@ -9212,7 +9043,7 @@
         <v>39125</v>
       </c>
       <c r="D99" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E99" t="n">
         <v>2</v>
@@ -9229,7 +9060,7 @@
         <v>39154</v>
       </c>
       <c r="D100" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E100" t="n">
         <v>1</v>
@@ -9246,7 +9077,7 @@
         <v>39159</v>
       </c>
       <c r="D101" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E101" t="n">
         <v>2</v>
@@ -9263,7 +9094,7 @@
         <v>39357</v>
       </c>
       <c r="D102" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -9280,7 +9111,7 @@
         <v>39388</v>
       </c>
       <c r="D103" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E103" t="n">
         <v>3</v>
@@ -9297,7 +9128,7 @@
         <v>39397</v>
       </c>
       <c r="D104" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E104" t="n">
         <v>1</v>
@@ -9314,7 +9145,7 @@
         <v>39413</v>
       </c>
       <c r="D105" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E105" t="n">
         <v>3</v>
@@ -9331,7 +9162,7 @@
         <v>39414</v>
       </c>
       <c r="D106" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E106" t="n">
         <v>2</v>
@@ -9348,7 +9179,7 @@
         <v>39433</v>
       </c>
       <c r="D107" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E107" t="n">
         <v>3</v>
@@ -9365,7 +9196,7 @@
         <v>39446</v>
       </c>
       <c r="D108" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E108" t="n">
         <v>3</v>
@@ -9382,7 +9213,7 @@
         <v>39460</v>
       </c>
       <c r="D109" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E109" t="n">
         <v>4</v>
@@ -9399,7 +9230,7 @@
         <v>39475</v>
       </c>
       <c r="D110" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E110" t="n">
         <v>2</v>
@@ -9416,7 +9247,7 @@
         <v>39495</v>
       </c>
       <c r="D111" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E111" t="n">
         <v>1</v>
@@ -9433,7 +9264,7 @@
         <v>39506</v>
       </c>
       <c r="D112" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E112" t="n">
         <v>1</v>
@@ -9450,7 +9281,7 @@
         <v>39524</v>
       </c>
       <c r="D113" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E113" t="n">
         <v>4</v>
@@ -9467,7 +9298,7 @@
         <v>39537</v>
       </c>
       <c r="D114" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E114" t="n">
         <v>3</v>
@@ -9484,7 +9315,7 @@
         <v>39723</v>
       </c>
       <c r="D115" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E115" t="n">
         <v>4</v>
@@ -9501,7 +9332,7 @@
         <v>39725</v>
       </c>
       <c r="D116" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E116" t="n">
         <v>2</v>
@@ -9518,7 +9349,7 @@
         <v>39755</v>
       </c>
       <c r="D117" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E117" t="n">
         <v>3</v>
@@ -9535,7 +9366,7 @@
         <v>39756</v>
       </c>
       <c r="D118" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E118" t="n">
         <v>2</v>
@@ -9552,7 +9383,7 @@
         <v>39758</v>
       </c>
       <c r="D119" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E119" t="n">
         <v>2</v>
@@ -9569,7 +9400,7 @@
         <v>39765</v>
       </c>
       <c r="D120" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E120" t="n">
         <v>1</v>
@@ -9586,7 +9417,7 @@
         <v>39785</v>
       </c>
       <c r="D121" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E121" t="n">
         <v>2</v>
@@ -9603,7 +9434,7 @@
         <v>39787</v>
       </c>
       <c r="D122" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E122" t="n">
         <v>1</v>
@@ -9620,7 +9451,7 @@
         <v>39798</v>
       </c>
       <c r="D123" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E123" t="n">
         <v>2</v>
@@ -9637,7 +9468,7 @@
         <v>39815</v>
       </c>
       <c r="D124" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E124" t="n">
         <v>4</v>
@@ -9654,7 +9485,7 @@
         <v>39818</v>
       </c>
       <c r="D125" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E125" t="n">
         <v>3</v>
@@ -9671,7 +9502,7 @@
         <v>39828</v>
       </c>
       <c r="D126" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E126" t="n">
         <v>2</v>
@@ -9688,7 +9519,7 @@
         <v>39848</v>
       </c>
       <c r="D127" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E127" t="n">
         <v>1</v>
@@ -9705,7 +9536,7 @@
         <v>39871</v>
       </c>
       <c r="D128" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E128" t="n">
         <v>2</v>
@@ -9722,7 +9553,7 @@
         <v>39881</v>
       </c>
       <c r="D129" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E129" t="n">
         <v>1</v>
@@ -9739,7 +9570,7 @@
         <v>40117</v>
       </c>
       <c r="D130" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E130" t="n">
         <v>2</v>
@@ -9756,7 +9587,7 @@
         <v>40144</v>
       </c>
       <c r="D131" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E131" t="n">
         <v>4</v>
@@ -9773,7 +9604,7 @@
         <v>40212</v>
       </c>
       <c r="D132" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E132" t="n">
         <v>1</v>
@@ -9790,7 +9621,7 @@
         <v>40244</v>
       </c>
       <c r="D133" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E133" t="n">
         <v>1</v>
@@ -9807,7 +9638,7 @@
         <v>40252</v>
       </c>
       <c r="D134" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E134" t="n">
         <v>4</v>
@@ -9824,7 +9655,7 @@
         <v>40575</v>
       </c>
       <c r="D135" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E135" t="n">
         <v>1</v>
@@ -9841,7 +9672,7 @@
         <v>40873</v>
       </c>
       <c r="D136" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E136" t="n">
         <v>1</v>
@@ -9858,7 +9689,7 @@
         <v>40956</v>
       </c>
       <c r="D137" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E137" t="n">
         <v>2</v>
@@ -9875,7 +9706,7 @@
         <v>40987</v>
       </c>
       <c r="D138" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E138" t="n">
         <v>3</v>
@@ -9892,7 +9723,7 @@
         <v>41246</v>
       </c>
       <c r="D139" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E139" t="n">
         <v>1</v>
@@ -9909,7 +9740,7 @@
         <v>41249</v>
       </c>
       <c r="D140" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E140" t="n">
         <v>2</v>
@@ -9926,7 +9757,7 @@
         <v>41280</v>
       </c>
       <c r="D141" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E141" t="n">
         <v>4</v>
@@ -9943,7 +9774,7 @@
         <v>41280</v>
       </c>
       <c r="D142" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E142" t="n">
         <v>1</v>
@@ -9960,7 +9791,7 @@
         <v>41329</v>
       </c>
       <c r="D143" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E143" t="n">
         <v>2</v>
@@ -9977,7 +9808,7 @@
         <v>41343</v>
       </c>
       <c r="D144" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E144" t="n">
         <v>2</v>
@@ -9994,7 +9825,7 @@
         <v>41359</v>
       </c>
       <c r="D145" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E145" t="n">
         <v>2</v>
@@ -10011,7 +9842,7 @@
         <v>41569</v>
       </c>
       <c r="D146" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E146" t="n">
         <v>1</v>
@@ -10028,7 +9859,7 @@
         <v>41576</v>
       </c>
       <c r="D147" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E147" t="n">
         <v>2</v>
@@ -10045,7 +9876,7 @@
         <v>41607</v>
       </c>
       <c r="D148" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E148" t="n">
         <v>1</v>
@@ -10062,7 +9893,7 @@
         <v>42028</v>
       </c>
       <c r="D149" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E149" t="n">
         <v>1</v>
@@ -10079,7 +9910,7 @@
         <v>42047</v>
       </c>
       <c r="D150" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E150" t="n">
         <v>3</v>
@@ -10096,7 +9927,7 @@
         <v>42302</v>
       </c>
       <c r="D151" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E151" t="n">
         <v>2</v>
@@ -10113,7 +9944,7 @@
         <v>42354</v>
       </c>
       <c r="D152" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E152" t="n">
         <v>4</v>
@@ -10130,7 +9961,7 @@
         <v>42427</v>
       </c>
       <c r="D153" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E153" t="n">
         <v>4</v>
@@ -10147,7 +9978,7 @@
         <v>42428</v>
       </c>
       <c r="D154" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E154" t="n">
         <v>2</v>
@@ -10164,7 +9995,7 @@
         <v>42457</v>
       </c>
       <c r="D155" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E155" t="n">
         <v>1</v>
@@ -10181,7 +10012,7 @@
         <v>42688</v>
       </c>
       <c r="D156" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E156" t="n">
         <v>1</v>
@@ -10198,7 +10029,7 @@
         <v>42729</v>
       </c>
       <c r="D157" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E157" t="n">
         <v>1</v>
@@ -10215,7 +10046,7 @@
         <v>42752</v>
       </c>
       <c r="D158" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E158" t="n">
         <v>1</v>
@@ -10232,7 +10063,7 @@
         <v>42765</v>
       </c>
       <c r="D159" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E159" t="n">
         <v>3</v>
@@ -10249,7 +10080,7 @@
         <v>42767</v>
       </c>
       <c r="D160" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E160" t="n">
         <v>1</v>
@@ -10266,7 +10097,7 @@
         <v>42769</v>
       </c>
       <c r="D161" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E161" t="n">
         <v>3</v>
@@ -10283,7 +10114,7 @@
         <v>42780</v>
       </c>
       <c r="D162" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E162" t="n">
         <v>3</v>
@@ -10300,7 +10131,7 @@
         <v>42794</v>
       </c>
       <c r="D163" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E163" t="n">
         <v>1</v>
@@ -10317,7 +10148,7 @@
         <v>42811</v>
       </c>
       <c r="D164" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E164" t="n">
         <v>2</v>
@@ -10334,7 +10165,7 @@
         <v>42821</v>
       </c>
       <c r="D165" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E165" t="n">
         <v>3</v>
@@ -10351,7 +10182,7 @@
         <v>43028</v>
       </c>
       <c r="D166" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E166" t="n">
         <v>2</v>
@@ -10368,7 +10199,7 @@
         <v>43084</v>
       </c>
       <c r="D167" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E167" t="n">
         <v>2</v>
@@ -10385,7 +10216,7 @@
         <v>43114</v>
       </c>
       <c r="D168" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E168" t="n">
         <v>3</v>
@@ -10402,7 +10233,7 @@
         <v>43147</v>
       </c>
       <c r="D169" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E169" t="n">
         <v>4</v>
@@ -10419,7 +10250,7 @@
         <v>43178</v>
       </c>
       <c r="D170" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E170" t="n">
         <v>2</v>
@@ -10436,7 +10267,7 @@
         <v>43485</v>
       </c>
       <c r="D171" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E171" t="n">
         <v>1</v>
@@ -10453,7 +10284,7 @@
         <v>43549</v>
       </c>
       <c r="D172" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E172" t="n">
         <v>1</v>
@@ -10470,7 +10301,7 @@
         <v>44123</v>
       </c>
       <c r="D173" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E173" t="n">
         <v>1</v>
@@ -10487,7 +10318,7 @@
         <v>44149</v>
       </c>
       <c r="D174" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E174" t="n">
         <v>3</v>
@@ -10504,7 +10335,7 @@
         <v>44181</v>
       </c>
       <c r="D175" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E175" t="n">
         <v>2</v>
@@ -10521,7 +10352,7 @@
         <v>44215</v>
       </c>
       <c r="D176" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E176" t="n">
         <v>3</v>
@@ -10538,7 +10369,7 @@
         <v>44245</v>
       </c>
       <c r="D177" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E177" t="n">
         <v>2</v>
@@ -10555,7 +10386,7 @@
         <v>44246</v>
       </c>
       <c r="D178" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E178" t="n">
         <v>3</v>
@@ -10572,7 +10403,7 @@
         <v>44271</v>
       </c>
       <c r="D179" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E179" t="n">
         <v>4</v>
@@ -10589,111 +10420,9 @@
         <v>44537</v>
       </c>
       <c r="D180" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B181" t="n">
-        <v>12</v>
-      </c>
-      <c r="C181" s="1" t="n">
-        <v>45271</v>
-      </c>
-      <c r="D181" t="s">
-        <v>100</v>
-      </c>
-      <c r="E181" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B182" t="n">
-        <v>12</v>
-      </c>
-      <c r="C182" s="1" t="n">
-        <v>45281</v>
-      </c>
-      <c r="D182" t="s">
-        <v>101</v>
-      </c>
-      <c r="E182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B183" t="n">
-        <v>1</v>
-      </c>
-      <c r="C183" s="1" t="n">
-        <v>45313</v>
-      </c>
-      <c r="D183" t="s">
-        <v>101</v>
-      </c>
-      <c r="E183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B184" t="n">
-        <v>2</v>
-      </c>
-      <c r="C184" s="1" t="n">
-        <v>45333</v>
-      </c>
-      <c r="D184" t="s">
-        <v>100</v>
-      </c>
-      <c r="E184" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B185" t="n">
-        <v>2</v>
-      </c>
-      <c r="C185" s="1" t="n">
-        <v>45343</v>
-      </c>
-      <c r="D185" t="s">
-        <v>101</v>
-      </c>
-      <c r="E185" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B186" t="n">
-        <v>3</v>
-      </c>
-      <c r="C186" s="1" t="n">
-        <v>45376</v>
-      </c>
-      <c r="D186" t="s">
-        <v>101</v>
-      </c>
-      <c r="E186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10739,7 +10468,7 @@
         <v>35549</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E2" t="n">
         <v>3</v>
@@ -10756,7 +10485,7 @@
         <v>35579</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E3" t="n">
         <v>3</v>
@@ -10773,7 +10502,7 @@
         <v>35610</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
@@ -10790,7 +10519,7 @@
         <v>35642</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E5" t="n">
         <v>3</v>
@@ -10807,7 +10536,7 @@
         <v>35671</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>
@@ -10824,7 +10553,7 @@
         <v>35909</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
@@ -10841,7 +10570,7 @@
         <v>35920</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E8" t="n">
         <v>3</v>
@@ -10858,7 +10587,7 @@
         <v>35941</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
@@ -10875,7 +10604,7 @@
         <v>35947</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -10892,7 +10621,7 @@
         <v>35963</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E11" t="n">
         <v>3</v>
@@ -10909,7 +10638,7 @@
         <v>35976</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
@@ -10926,7 +10655,7 @@
         <v>35994</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E13" t="n">
         <v>3</v>
@@ -10943,7 +10672,7 @@
         <v>36021</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E14" t="n">
         <v>3</v>
@@ -10960,7 +10689,7 @@
         <v>36050</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E15" t="n">
         <v>2</v>
@@ -10977,7 +10706,7 @@
         <v>36259</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E16" t="n">
         <v>2</v>
@@ -10994,7 +10723,7 @@
         <v>36290</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E17" t="n">
         <v>3</v>
@@ -11011,7 +10740,7 @@
         <v>36318</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E18" t="n">
         <v>3</v>
@@ -11028,7 +10757,7 @@
         <v>36350</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -11045,7 +10774,7 @@
         <v>36378</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -11062,7 +10791,7 @@
         <v>36409</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E21" t="n">
         <v>2</v>
@@ -11079,7 +10808,7 @@
         <v>37363</v>
       </c>
       <c r="D22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E22" t="n">
         <v>3</v>
@@ -11096,7 +10825,7 @@
         <v>37394</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E23" t="n">
         <v>3</v>
@@ -11113,7 +10842,7 @@
         <v>37423</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -11130,7 +10859,7 @@
         <v>37453</v>
       </c>
       <c r="D25" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
@@ -11147,7 +10876,7 @@
         <v>37712</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E26" t="n">
         <v>2</v>
@@ -11164,7 +10893,7 @@
         <v>37713</v>
       </c>
       <c r="D27" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -11181,7 +10910,7 @@
         <v>37720</v>
       </c>
       <c r="D28" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E28" t="n">
         <v>3</v>
@@ -11198,7 +10927,7 @@
         <v>37725</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
@@ -11215,7 +10944,7 @@
         <v>37741</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E30" t="n">
         <v>2</v>
@@ -11232,7 +10961,7 @@
         <v>37743</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E31" t="n">
         <v>2</v>
@@ -11249,7 +10978,7 @@
         <v>37755</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E32" t="n">
         <v>3</v>
@@ -11266,7 +10995,7 @@
         <v>37764</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E33" t="n">
         <v>4</v>
@@ -11283,7 +11012,7 @@
         <v>37773</v>
       </c>
       <c r="D34" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E34" t="n">
         <v>2</v>
@@ -11300,7 +11029,7 @@
         <v>37777</v>
       </c>
       <c r="D35" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E35" t="n">
         <v>3</v>
@@ -11317,7 +11046,7 @@
         <v>37785</v>
       </c>
       <c r="D36" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E36" t="n">
         <v>3</v>
@@ -11334,7 +11063,7 @@
         <v>37789</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E37" t="n">
         <v>3</v>
@@ -11351,7 +11080,7 @@
         <v>37795</v>
       </c>
       <c r="D38" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -11368,7 +11097,7 @@
         <v>37804</v>
       </c>
       <c r="D39" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E39" t="n">
         <v>2</v>
@@ -11385,7 +11114,7 @@
         <v>37811</v>
       </c>
       <c r="D40" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E40" t="n">
         <v>2</v>
@@ -11402,7 +11131,7 @@
         <v>37814</v>
       </c>
       <c r="D41" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E41" t="n">
         <v>3</v>
@@ -11419,7 +11148,7 @@
         <v>37823</v>
       </c>
       <c r="D42" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E42" t="n">
         <v>2</v>
@@ -11436,7 +11165,7 @@
         <v>37825</v>
       </c>
       <c r="D43" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E43" t="n">
         <v>3</v>
@@ -11453,7 +11182,7 @@
         <v>37837</v>
       </c>
       <c r="D44" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E44" t="n">
         <v>3</v>
@@ -11470,7 +11199,7 @@
         <v>37841</v>
       </c>
       <c r="D45" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E45" t="n">
         <v>1</v>
@@ -11487,7 +11216,7 @@
         <v>37846</v>
       </c>
       <c r="D46" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E46" t="n">
         <v>1</v>
@@ -11504,7 +11233,7 @@
         <v>37851</v>
       </c>
       <c r="D47" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E47" t="n">
         <v>3</v>
@@ -11521,7 +11250,7 @@
         <v>37855</v>
       </c>
       <c r="D48" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E48" t="n">
         <v>3</v>
@@ -11538,7 +11267,7 @@
         <v>37865</v>
       </c>
       <c r="D49" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E49" t="n">
         <v>2</v>
@@ -11555,7 +11284,7 @@
         <v>37869</v>
       </c>
       <c r="D50" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E50" t="n">
         <v>3</v>
@@ -11572,7 +11301,7 @@
         <v>37880</v>
       </c>
       <c r="D51" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
@@ -11589,7 +11318,7 @@
         <v>37881</v>
       </c>
       <c r="D52" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E52" t="n">
         <v>3</v>
@@ -11606,7 +11335,7 @@
         <v>37887</v>
       </c>
       <c r="D53" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E53" t="n">
         <v>2</v>
@@ -11623,7 +11352,7 @@
         <v>38089</v>
       </c>
       <c r="D54" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E54" t="n">
         <v>2</v>
@@ -11640,7 +11369,7 @@
         <v>38110</v>
       </c>
       <c r="D55" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E55" t="n">
         <v>4</v>
@@ -11657,7 +11386,7 @@
         <v>38112</v>
       </c>
       <c r="D56" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E56" t="n">
         <v>3</v>
@@ -11674,7 +11403,7 @@
         <v>38114</v>
       </c>
       <c r="D57" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E57" t="n">
         <v>1</v>
@@ -11691,7 +11420,7 @@
         <v>38118</v>
       </c>
       <c r="D58" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E58" t="n">
         <v>3</v>
@@ -11708,7 +11437,7 @@
         <v>38140</v>
       </c>
       <c r="D59" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E59" t="n">
         <v>4</v>
@@ -11725,7 +11454,7 @@
         <v>38147</v>
       </c>
       <c r="D60" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E60" t="n">
         <v>4</v>
@@ -11742,7 +11471,7 @@
         <v>38512</v>
       </c>
       <c r="D61" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E61" t="n">
         <v>2</v>
@@ -11759,7 +11488,7 @@
         <v>38551</v>
       </c>
       <c r="D62" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E62" t="n">
         <v>2</v>
@@ -11776,7 +11505,7 @@
         <v>38574</v>
       </c>
       <c r="D63" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E63" t="n">
         <v>1</v>
@@ -11793,7 +11522,7 @@
         <v>38580</v>
       </c>
       <c r="D64" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E64" t="n">
         <v>1</v>
@@ -11810,7 +11539,7 @@
         <v>38613</v>
       </c>
       <c r="D65" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E65" t="n">
         <v>2</v>
@@ -11827,7 +11556,7 @@
         <v>38617</v>
       </c>
       <c r="D66" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E66" t="n">
         <v>2</v>
@@ -11844,7 +11573,7 @@
         <v>38833</v>
       </c>
       <c r="D67" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E67" t="n">
         <v>1</v>
@@ -11861,7 +11590,7 @@
         <v>38856</v>
       </c>
       <c r="D68" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E68" t="n">
         <v>2</v>
@@ -11878,7 +11607,7 @@
         <v>38886</v>
       </c>
       <c r="D69" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E69" t="n">
         <v>2</v>
@@ -11895,7 +11624,7 @@
         <v>38897</v>
       </c>
       <c r="D70" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E70" t="n">
         <v>2</v>
@@ -11912,7 +11641,7 @@
         <v>38918</v>
       </c>
       <c r="D71" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E71" t="n">
         <v>1</v>
@@ -11929,7 +11658,7 @@
         <v>38930</v>
       </c>
       <c r="D72" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E72" t="n">
         <v>3</v>
@@ -11946,7 +11675,7 @@
         <v>38950</v>
       </c>
       <c r="D73" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E73" t="n">
         <v>1</v>
@@ -11963,7 +11692,7 @@
         <v>38957</v>
       </c>
       <c r="D74" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E74" t="n">
         <v>3</v>
@@ -11980,7 +11709,7 @@
         <v>38978</v>
       </c>
       <c r="D75" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E75" t="n">
         <v>3</v>
@@ -11997,7 +11726,7 @@
         <v>38979</v>
       </c>
       <c r="D76" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E76" t="n">
         <v>2</v>
@@ -12014,7 +11743,7 @@
         <v>38989</v>
       </c>
       <c r="D77" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E77" t="n">
         <v>2</v>
@@ -12031,7 +11760,7 @@
         <v>39190</v>
       </c>
       <c r="D78" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E78" t="n">
         <v>4</v>
@@ -12048,7 +11777,7 @@
         <v>39219</v>
       </c>
       <c r="D79" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E79" t="n">
         <v>3</v>
@@ -12065,7 +11794,7 @@
         <v>39232</v>
       </c>
       <c r="D80" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E80" t="n">
         <v>1</v>
@@ -12082,7 +11811,7 @@
         <v>39264</v>
       </c>
       <c r="D81" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E81" t="n">
         <v>1</v>
@@ -12099,7 +11828,7 @@
         <v>39282</v>
       </c>
       <c r="D82" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E82" t="n">
         <v>3</v>
@@ -12116,7 +11845,7 @@
         <v>39553</v>
       </c>
       <c r="D83" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E83" t="n">
         <v>2</v>
@@ -12133,7 +11862,7 @@
         <v>39554</v>
       </c>
       <c r="D84" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E84" t="n">
         <v>2</v>
@@ -12150,7 +11879,7 @@
         <v>39585</v>
       </c>
       <c r="D85" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E85" t="n">
         <v>2</v>
@@ -12167,7 +11896,7 @@
         <v>39585</v>
       </c>
       <c r="D86" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E86" t="n">
         <v>1</v>
@@ -12184,7 +11913,7 @@
         <v>39617</v>
       </c>
       <c r="D87" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E87" t="n">
         <v>2</v>
@@ -12201,7 +11930,7 @@
         <v>39644</v>
       </c>
       <c r="D88" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E88" t="n">
         <v>1</v>
@@ -12218,7 +11947,7 @@
         <v>39647</v>
       </c>
       <c r="D89" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E89" t="n">
         <v>3</v>
@@ -12235,7 +11964,7 @@
         <v>39658</v>
       </c>
       <c r="D90" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E90" t="n">
         <v>2</v>
@@ -12252,7 +11981,7 @@
         <v>39672</v>
       </c>
       <c r="D91" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E91" t="n">
         <v>1</v>
@@ -12269,7 +11998,7 @@
         <v>39681</v>
       </c>
       <c r="D92" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E92" t="n">
         <v>2</v>
@@ -12286,7 +12015,7 @@
         <v>39690</v>
       </c>
       <c r="D93" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E93" t="n">
         <v>3</v>
@@ -12303,7 +12032,7 @@
         <v>39694</v>
       </c>
       <c r="D94" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E94" t="n">
         <v>3</v>
@@ -12320,7 +12049,7 @@
         <v>39701</v>
       </c>
       <c r="D95" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E95" t="n">
         <v>1</v>
@@ -12337,7 +12066,7 @@
         <v>39914</v>
       </c>
       <c r="D96" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E96" t="n">
         <v>1</v>
@@ -12354,7 +12083,7 @@
         <v>39934</v>
       </c>
       <c r="D97" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E97" t="n">
         <v>2</v>
@@ -12371,7 +12100,7 @@
         <v>39939</v>
       </c>
       <c r="D98" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E98" t="n">
         <v>2</v>
@@ -12388,7 +12117,7 @@
         <v>39939</v>
       </c>
       <c r="D99" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E99" t="n">
         <v>2</v>
@@ -12405,7 +12134,7 @@
         <v>39963</v>
       </c>
       <c r="D100" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E100" t="n">
         <v>2</v>
@@ -12422,7 +12151,7 @@
         <v>39987</v>
       </c>
       <c r="D101" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E101" t="n">
         <v>1</v>
@@ -12439,7 +12168,7 @@
         <v>39991</v>
       </c>
       <c r="D102" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E102" t="n">
         <v>3</v>
@@ -12456,7 +12185,7 @@
         <v>40022</v>
       </c>
       <c r="D103" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E103" t="n">
         <v>2</v>
@@ -12473,7 +12202,7 @@
         <v>40083</v>
       </c>
       <c r="D104" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E104" t="n">
         <v>3</v>
@@ -12490,7 +12219,7 @@
         <v>40328</v>
       </c>
       <c r="D105" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E105" t="n">
         <v>2</v>
@@ -12507,7 +12236,7 @@
         <v>40357</v>
       </c>
       <c r="D106" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E106" t="n">
         <v>1</v>
@@ -12524,7 +12253,7 @@
         <v>40640</v>
       </c>
       <c r="D107" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E107" t="n">
         <v>1</v>
@@ -12541,7 +12270,7 @@
         <v>40673</v>
       </c>
       <c r="D108" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E108" t="n">
         <v>1</v>
@@ -12558,7 +12287,7 @@
         <v>40705</v>
       </c>
       <c r="D109" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E109" t="n">
         <v>2</v>
@@ -12575,7 +12304,7 @@
         <v>40768</v>
       </c>
       <c r="D110" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E110" t="n">
         <v>1</v>
@@ -12592,7 +12321,7 @@
         <v>41016</v>
       </c>
       <c r="D111" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E111" t="n">
         <v>3</v>
@@ -12609,7 +12338,7 @@
         <v>41078</v>
       </c>
       <c r="D112" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E112" t="n">
         <v>2</v>
@@ -12626,7 +12355,7 @@
         <v>41107</v>
       </c>
       <c r="D113" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E113" t="n">
         <v>1</v>
@@ -12643,7 +12372,7 @@
         <v>41137</v>
       </c>
       <c r="D114" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E114" t="n">
         <v>2</v>
@@ -12660,7 +12389,7 @@
         <v>41167</v>
       </c>
       <c r="D115" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E115" t="n">
         <v>2</v>
@@ -12677,7 +12406,7 @@
         <v>41374</v>
       </c>
       <c r="D116" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E116" t="n">
         <v>1</v>
@@ -12694,7 +12423,7 @@
         <v>41389</v>
       </c>
       <c r="D117" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E117" t="n">
         <v>3</v>
@@ -12711,7 +12440,7 @@
         <v>41406</v>
       </c>
       <c r="D118" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E118" t="n">
         <v>2</v>
@@ -12728,7 +12457,7 @@
         <v>41419</v>
       </c>
       <c r="D119" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E119" t="n">
         <v>3</v>
@@ -12745,7 +12474,7 @@
         <v>41437</v>
       </c>
       <c r="D120" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E120" t="n">
         <v>2</v>
@@ -12762,7 +12491,7 @@
         <v>41451</v>
       </c>
       <c r="D121" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E121" t="n">
         <v>3</v>
@@ -12779,7 +12508,7 @@
         <v>41472</v>
       </c>
       <c r="D122" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E122" t="n">
         <v>3</v>
@@ -12796,7 +12525,7 @@
         <v>41484</v>
       </c>
       <c r="D123" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E123" t="n">
         <v>3</v>
@@ -12813,7 +12542,7 @@
         <v>41505</v>
       </c>
       <c r="D124" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E124" t="n">
         <v>1</v>
@@ -12830,7 +12559,7 @@
         <v>41517</v>
       </c>
       <c r="D125" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E125" t="n">
         <v>3</v>
@@ -12847,7 +12576,7 @@
         <v>41539</v>
       </c>
       <c r="D126" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E126" t="n">
         <v>3</v>
@@ -12864,7 +12593,7 @@
         <v>42104</v>
       </c>
       <c r="D127" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E127" t="n">
         <v>1</v>
@@ -12881,7 +12610,7 @@
         <v>42125</v>
       </c>
       <c r="D128" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E128" t="n">
         <v>1</v>
@@ -12898,7 +12627,7 @@
         <v>42132</v>
       </c>
       <c r="D129" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E129" t="n">
         <v>1</v>
@@ -12915,7 +12644,7 @@
         <v>42153</v>
       </c>
       <c r="D130" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E130" t="n">
         <v>2</v>
@@ -12932,7 +12661,7 @@
         <v>42205</v>
       </c>
       <c r="D131" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E131" t="n">
         <v>1</v>
@@ -12949,7 +12678,7 @@
         <v>42212</v>
       </c>
       <c r="D132" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E132" t="n">
         <v>2</v>
@@ -12966,7 +12695,7 @@
         <v>42245</v>
       </c>
       <c r="D133" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E133" t="n">
         <v>2</v>
@@ -12983,7 +12712,7 @@
         <v>42273</v>
       </c>
       <c r="D134" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E134" t="n">
         <v>2</v>
@@ -13000,7 +12729,7 @@
         <v>42276</v>
       </c>
       <c r="D135" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E135" t="n">
         <v>2</v>
@@ -13017,7 +12746,7 @@
         <v>42486</v>
       </c>
       <c r="D136" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E136" t="n">
         <v>3</v>
@@ -13034,7 +12763,7 @@
         <v>42487</v>
       </c>
       <c r="D137" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E137" t="n">
         <v>1</v>
@@ -13051,7 +12780,7 @@
         <v>42523</v>
       </c>
       <c r="D138" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E138" t="n">
         <v>1</v>
@@ -13068,7 +12797,7 @@
         <v>42564</v>
       </c>
       <c r="D139" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E139" t="n">
         <v>3</v>
@@ -13085,7 +12814,7 @@
         <v>42594</v>
       </c>
       <c r="D140" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E140" t="n">
         <v>3</v>
@@ -13102,7 +12831,7 @@
         <v>42626</v>
       </c>
       <c r="D141" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E141" t="n">
         <v>2</v>
@@ -13119,7 +12848,7 @@
         <v>42629</v>
       </c>
       <c r="D142" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E142" t="n">
         <v>2</v>
@@ -13136,7 +12865,7 @@
         <v>42826</v>
       </c>
       <c r="D143" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E143" t="n">
         <v>1</v>
@@ -13153,7 +12882,7 @@
         <v>42867</v>
       </c>
       <c r="D144" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E144" t="n">
         <v>2</v>
@@ -13170,7 +12899,7 @@
         <v>42877</v>
       </c>
       <c r="D145" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E145" t="n">
         <v>1</v>
@@ -13187,7 +12916,7 @@
         <v>42896</v>
       </c>
       <c r="D146" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E146" t="n">
         <v>1</v>
@@ -13204,7 +12933,7 @@
         <v>42947</v>
       </c>
       <c r="D147" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E147" t="n">
         <v>1</v>
@@ -13221,7 +12950,7 @@
         <v>42984</v>
       </c>
       <c r="D148" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E148" t="n">
         <v>1</v>
@@ -13238,7 +12967,7 @@
         <v>42996</v>
       </c>
       <c r="D149" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E149" t="n">
         <v>1</v>
@@ -13255,7 +12984,7 @@
         <v>43268</v>
       </c>
       <c r="D150" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E150" t="n">
         <v>2</v>
@@ -13272,7 +13001,7 @@
         <v>43298</v>
       </c>
       <c r="D151" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E151" t="n">
         <v>2</v>
@@ -13289,7 +13018,7 @@
         <v>43936</v>
       </c>
       <c r="D152" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E152" t="n">
         <v>2</v>
@@ -13306,7 +13035,7 @@
         <v>43970</v>
       </c>
       <c r="D153" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E153" t="n">
         <v>1</v>
@@ -13323,7 +13052,7 @@
         <v>43970</v>
       </c>
       <c r="D154" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E154" t="n">
         <v>3</v>
@@ -13340,7 +13069,7 @@
         <v>43998</v>
       </c>
       <c r="D155" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E155" t="n">
         <v>1</v>
@@ -13357,7 +13086,7 @@
         <v>43999</v>
       </c>
       <c r="D156" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E156" t="n">
         <v>1</v>
@@ -13374,7 +13103,7 @@
         <v>44025</v>
       </c>
       <c r="D157" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E157" t="n">
         <v>2</v>
@@ -13391,7 +13120,7 @@
         <v>44032</v>
       </c>
       <c r="D158" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E158" t="n">
         <v>1</v>
@@ -13408,7 +13137,7 @@
         <v>44057</v>
       </c>
       <c r="D159" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E159" t="n">
         <v>3</v>
@@ -13425,7 +13154,7 @@
         <v>44061</v>
       </c>
       <c r="D160" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E160" t="n">
         <v>2</v>
@@ -13442,7 +13171,7 @@
         <v>44088</v>
       </c>
       <c r="D161" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E161" t="n">
         <v>3</v>
@@ -13459,7 +13188,7 @@
         <v>44303</v>
       </c>
       <c r="D162" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E162" t="n">
         <v>3</v>
@@ -13476,7 +13205,7 @@
         <v>44341</v>
       </c>
       <c r="D163" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E163" t="n">
         <v>3</v>
@@ -13493,7 +13222,7 @@
         <v>44342</v>
       </c>
       <c r="D164" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E164" t="n">
         <v>1</v>
@@ -13510,7 +13239,7 @@
         <v>44374</v>
       </c>
       <c r="D165" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E165" t="n">
         <v>2</v>
@@ -13527,7 +13256,7 @@
         <v>44409</v>
       </c>
       <c r="D166" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E166" t="n">
         <v>1</v>
@@ -13544,7 +13273,7 @@
         <v>44425</v>
       </c>
       <c r="D167" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E167" t="n">
         <v>2</v>
@@ -13561,7 +13290,7 @@
         <v>44454</v>
       </c>
       <c r="D168" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E168" t="n">
         <v>2</v>
@@ -13578,7 +13307,7 @@
         <v>44454</v>
       </c>
       <c r="D169" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E169" t="n">
         <v>3</v>
@@ -13595,77 +13324,9 @@
         <v>44747</v>
       </c>
       <c r="D170" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E170" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B171" t="n">
-        <v>8</v>
-      </c>
-      <c r="C171" s="1" t="n">
-        <v>45151</v>
-      </c>
-      <c r="D171" t="s">
-        <v>101</v>
-      </c>
-      <c r="E171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B172" t="n">
-        <v>9</v>
-      </c>
-      <c r="C172" s="1" t="n">
-        <v>45179</v>
-      </c>
-      <c r="D172" t="s">
-        <v>101</v>
-      </c>
-      <c r="E172" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B173" t="n">
-        <v>6</v>
-      </c>
-      <c r="C173" s="1" t="n">
-        <v>45451</v>
-      </c>
-      <c r="D173" t="s">
-        <v>105</v>
-      </c>
-      <c r="E173" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B174" t="n">
-        <v>7</v>
-      </c>
-      <c r="C174" s="1" t="n">
-        <v>45497</v>
-      </c>
-      <c r="D174" t="s">
-        <v>105</v>
-      </c>
-      <c r="E174" t="n">
         <v>3</v>
       </c>
     </row>
@@ -13711,7 +13372,7 @@
         <v>35506</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -13728,7 +13389,7 @@
         <v>35507</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -13745,7 +13406,7 @@
         <v>35729</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
@@ -13762,7 +13423,7 @@
         <v>35758</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -13779,7 +13440,7 @@
         <v>35765</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E6" t="n">
         <v>3</v>
@@ -13796,7 +13457,7 @@
         <v>35801</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -13813,7 +13474,7 @@
         <v>35843</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -13830,7 +13491,7 @@
         <v>35871</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -13847,7 +13508,7 @@
         <v>36234</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E10" t="n">
         <v>3</v>
@@ -13864,7 +13525,7 @@
         <v>36248</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E11" t="n">
         <v>2</v>
@@ -13881,7 +13542,7 @@
         <v>36437</v>
       </c>
       <c r="D12" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E12" t="n">
         <v>3</v>
@@ -13898,7 +13559,7 @@
         <v>36460</v>
       </c>
       <c r="D13" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E13" t="n">
         <v>3</v>
@@ -13915,7 +13576,7 @@
         <v>36465</v>
       </c>
       <c r="D14" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -13932,7 +13593,7 @@
         <v>36490</v>
       </c>
       <c r="D15" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -13949,7 +13610,7 @@
         <v>36492</v>
       </c>
       <c r="D16" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E16" t="n">
         <v>2</v>
@@ -13966,7 +13627,7 @@
         <v>36522</v>
       </c>
       <c r="D17" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E17" t="n">
         <v>3</v>
@@ -13983,7 +13644,7 @@
         <v>36524</v>
       </c>
       <c r="D18" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E18" t="n">
         <v>3</v>
@@ -14000,7 +13661,7 @@
         <v>36549</v>
       </c>
       <c r="D19" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E19" t="n">
         <v>3</v>
@@ -14017,7 +13678,7 @@
         <v>36581</v>
       </c>
       <c r="D20" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E20" t="n">
         <v>2</v>
@@ -14034,7 +13695,7 @@
         <v>36610</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E21" t="n">
         <v>2</v>
@@ -14051,7 +13712,7 @@
         <v>36822</v>
       </c>
       <c r="D22" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E22" t="n">
         <v>3</v>
@@ -14068,7 +13729,7 @@
         <v>36853</v>
       </c>
       <c r="D23" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -14085,7 +13746,7 @@
         <v>36888</v>
       </c>
       <c r="D24" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -14102,7 +13763,7 @@
         <v>36936</v>
       </c>
       <c r="D25" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -14119,7 +13780,7 @@
         <v>37340</v>
       </c>
       <c r="D26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E26" t="n">
         <v>2</v>
@@ -14136,7 +13797,7 @@
         <v>37345</v>
       </c>
       <c r="D27" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -14153,7 +13814,7 @@
         <v>37530</v>
       </c>
       <c r="D28" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -14170,7 +13831,7 @@
         <v>37551</v>
       </c>
       <c r="D29" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E29" t="n">
         <v>3</v>
@@ -14187,7 +13848,7 @@
         <v>37556</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
@@ -14204,7 +13865,7 @@
         <v>37562</v>
       </c>
       <c r="D31" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E31" t="n">
         <v>2</v>
@@ -14221,7 +13882,7 @@
         <v>37580</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E32" t="n">
         <v>4</v>
@@ -14238,7 +13899,7 @@
         <v>37583</v>
       </c>
       <c r="D33" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E33" t="n">
         <v>2</v>
@@ -14255,7 +13916,7 @@
         <v>37584</v>
       </c>
       <c r="D34" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E34" t="n">
         <v>2</v>
@@ -14272,7 +13933,7 @@
         <v>37585</v>
       </c>
       <c r="D35" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E35" t="n">
         <v>2</v>
@@ -14289,7 +13950,7 @@
         <v>37591</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E36" t="n">
         <v>3</v>
@@ -14306,7 +13967,7 @@
         <v>37591</v>
       </c>
       <c r="D37" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E37" t="n">
         <v>1</v>
@@ -14323,7 +13984,7 @@
         <v>37604</v>
       </c>
       <c r="D38" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E38" t="n">
         <v>2</v>
@@ -14340,7 +14001,7 @@
         <v>37612</v>
       </c>
       <c r="D39" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E39" t="n">
         <v>2</v>
@@ -14357,7 +14018,7 @@
         <v>37613</v>
       </c>
       <c r="D40" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E40" t="n">
         <v>3</v>
@@ -14374,7 +14035,7 @@
         <v>37622</v>
       </c>
       <c r="D41" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E41" t="n">
         <v>1</v>
@@ -14391,7 +14052,7 @@
         <v>37625</v>
       </c>
       <c r="D42" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E42" t="n">
         <v>3</v>
@@ -14408,7 +14069,7 @@
         <v>37626</v>
       </c>
       <c r="D43" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E43" t="n">
         <v>1</v>
@@ -14425,7 +14086,7 @@
         <v>37632</v>
       </c>
       <c r="D44" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E44" t="n">
         <v>2</v>
@@ -14442,7 +14103,7 @@
         <v>37640</v>
       </c>
       <c r="D45" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E45" t="n">
         <v>2</v>
@@ -14459,7 +14120,7 @@
         <v>37645</v>
       </c>
       <c r="D46" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E46" t="n">
         <v>2</v>
@@ -14476,7 +14137,7 @@
         <v>37649</v>
       </c>
       <c r="D47" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E47" t="n">
         <v>3</v>
@@ -14493,7 +14154,7 @@
         <v>37653</v>
       </c>
       <c r="D48" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E48" t="n">
         <v>2</v>
@@ -14510,7 +14171,7 @@
         <v>37659</v>
       </c>
       <c r="D49" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E49" t="n">
         <v>1</v>
@@ -14527,7 +14188,7 @@
         <v>37659</v>
       </c>
       <c r="D50" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E50" t="n">
         <v>2</v>
@@ -14544,7 +14205,7 @@
         <v>37659</v>
       </c>
       <c r="D51" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E51" t="n">
         <v>2</v>
@@ -14561,7 +14222,7 @@
         <v>37672</v>
       </c>
       <c r="D52" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E52" t="n">
         <v>2</v>
@@ -14578,7 +14239,7 @@
         <v>37677</v>
       </c>
       <c r="D53" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E53" t="n">
         <v>3</v>
@@ -14595,7 +14256,7 @@
         <v>37680</v>
       </c>
       <c r="D54" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E54" t="n">
         <v>3</v>
@@ -14612,7 +14273,7 @@
         <v>37684</v>
       </c>
       <c r="D55" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E55" t="n">
         <v>2</v>
@@ -14629,7 +14290,7 @@
         <v>37692</v>
       </c>
       <c r="D56" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E56" t="n">
         <v>1</v>
@@ -14646,7 +14307,7 @@
         <v>37694</v>
       </c>
       <c r="D57" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E57" t="n">
         <v>3</v>
@@ -14663,7 +14324,7 @@
         <v>37700</v>
       </c>
       <c r="D58" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E58" t="n">
         <v>3</v>
@@ -14680,7 +14341,7 @@
         <v>37703</v>
       </c>
       <c r="D59" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E59" t="n">
         <v>2</v>
@@ -14697,7 +14358,7 @@
         <v>37710</v>
       </c>
       <c r="D60" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E60" t="n">
         <v>2</v>
@@ -14714,7 +14375,7 @@
         <v>37711</v>
       </c>
       <c r="D61" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E61" t="n">
         <v>4</v>
@@ -14731,7 +14392,7 @@
         <v>37900</v>
       </c>
       <c r="D62" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -14748,7 +14409,7 @@
         <v>37900</v>
       </c>
       <c r="D63" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E63" t="n">
         <v>3</v>
@@ -14765,7 +14426,7 @@
         <v>37902</v>
       </c>
       <c r="D64" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E64" t="n">
         <v>4</v>
@@ -14782,7 +14443,7 @@
         <v>37902</v>
       </c>
       <c r="D65" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E65" t="n">
         <v>3</v>
@@ -14799,7 +14460,7 @@
         <v>37929</v>
       </c>
       <c r="D66" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E66" t="n">
         <v>3</v>
@@ -14816,7 +14477,7 @@
         <v>37931</v>
       </c>
       <c r="D67" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E67" t="n">
         <v>3</v>
@@ -14833,7 +14494,7 @@
         <v>37931</v>
       </c>
       <c r="D68" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E68" t="n">
         <v>1</v>
@@ -14850,7 +14511,7 @@
         <v>37931</v>
       </c>
       <c r="D69" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E69" t="n">
         <v>1</v>
@@ -14867,7 +14528,7 @@
         <v>37957</v>
       </c>
       <c r="D70" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E70" t="n">
         <v>5</v>
@@ -14884,7 +14545,7 @@
         <v>37959</v>
       </c>
       <c r="D71" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E71" t="n">
         <v>3</v>
@@ -14901,7 +14562,7 @@
         <v>37961</v>
       </c>
       <c r="D72" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E72" t="n">
         <v>1</v>
@@ -14918,7 +14579,7 @@
         <v>37964</v>
       </c>
       <c r="D73" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E73" t="n">
         <v>4</v>
@@ -14935,7 +14596,7 @@
         <v>37990</v>
       </c>
       <c r="D74" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E74" t="n">
         <v>2</v>
@@ -14952,7 +14613,7 @@
         <v>37990</v>
       </c>
       <c r="D75" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E75" t="n">
         <v>1</v>
@@ -14969,7 +14630,7 @@
         <v>37999</v>
       </c>
       <c r="D76" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E76" t="n">
         <v>3</v>
@@ -14986,7 +14647,7 @@
         <v>38016</v>
       </c>
       <c r="D77" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E77" t="n">
         <v>2</v>
@@ -15003,7 +14664,7 @@
         <v>38033</v>
       </c>
       <c r="D78" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E78" t="n">
         <v>2</v>
@@ -15020,7 +14681,7 @@
         <v>38048</v>
       </c>
       <c r="D79" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E79" t="n">
         <v>2</v>
@@ -15037,7 +14698,7 @@
         <v>38300</v>
       </c>
       <c r="D80" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E80" t="n">
         <v>3</v>
@@ -15054,7 +14715,7 @@
         <v>38331</v>
       </c>
       <c r="D81" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E81" t="n">
         <v>2</v>
@@ -15071,7 +14732,7 @@
         <v>38349</v>
       </c>
       <c r="D82" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E82" t="n">
         <v>2</v>
@@ -15088,7 +14749,7 @@
         <v>38362</v>
       </c>
       <c r="D83" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E83" t="n">
         <v>3</v>
@@ -15105,7 +14766,7 @@
         <v>38375</v>
       </c>
       <c r="D84" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E84" t="n">
         <v>2</v>
@@ -15122,7 +14783,7 @@
         <v>38386</v>
       </c>
       <c r="D85" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E85" t="n">
         <v>1</v>
@@ -15139,7 +14800,7 @@
         <v>38393</v>
       </c>
       <c r="D86" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E86" t="n">
         <v>2</v>
@@ -15156,7 +14817,7 @@
         <v>38401</v>
       </c>
       <c r="D87" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E87" t="n">
         <v>3</v>
@@ -15173,7 +14834,7 @@
         <v>38432</v>
       </c>
       <c r="D88" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E88" t="n">
         <v>3</v>
@@ -15190,7 +14851,7 @@
         <v>38626</v>
       </c>
       <c r="D89" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E89" t="n">
         <v>1</v>
@@ -15207,7 +14868,7 @@
         <v>38631</v>
       </c>
       <c r="D90" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E90" t="n">
         <v>1</v>
@@ -15224,7 +14885,7 @@
         <v>38647</v>
       </c>
       <c r="D91" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E91" t="n">
         <v>3</v>
@@ -15241,7 +14902,7 @@
         <v>38687</v>
       </c>
       <c r="D92" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E92" t="n">
         <v>3</v>
@@ -15258,7 +14919,7 @@
         <v>38691</v>
       </c>
       <c r="D93" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E93" t="n">
         <v>1</v>
@@ -15275,7 +14936,7 @@
         <v>38716</v>
       </c>
       <c r="D94" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E94" t="n">
         <v>1</v>
@@ -15292,7 +14953,7 @@
         <v>38718</v>
       </c>
       <c r="D95" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E95" t="n">
         <v>1</v>
@@ -15309,7 +14970,7 @@
         <v>38807</v>
       </c>
       <c r="D96" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E96" t="n">
         <v>3</v>
@@ -15326,7 +14987,7 @@
         <v>39747</v>
       </c>
       <c r="D97" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E97" t="n">
         <v>2</v>
@@ -15343,7 +15004,7 @@
         <v>39875</v>
       </c>
       <c r="D98" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E98" t="n">
         <v>2</v>
@@ -15360,7 +15021,7 @@
         <v>39903</v>
       </c>
       <c r="D99" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E99" t="n">
         <v>1</v>
@@ -15377,7 +15038,7 @@
         <v>40111</v>
       </c>
       <c r="D100" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E100" t="n">
         <v>2</v>
@@ -15394,7 +15055,7 @@
         <v>40116</v>
       </c>
       <c r="D101" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E101" t="n">
         <v>2</v>
@@ -15411,7 +15072,7 @@
         <v>40131</v>
       </c>
       <c r="D102" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E102" t="n">
         <v>2</v>
@@ -15428,7 +15089,7 @@
         <v>40142</v>
       </c>
       <c r="D103" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E103" t="n">
         <v>3</v>
@@ -15445,7 +15106,7 @@
         <v>40145</v>
       </c>
       <c r="D104" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E104" t="n">
         <v>2</v>
@@ -15462,7 +15123,7 @@
         <v>40192</v>
       </c>
       <c r="D105" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E105" t="n">
         <v>1</v>
@@ -15479,7 +15140,7 @@
         <v>40197</v>
       </c>
       <c r="D106" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E106" t="n">
         <v>3</v>
@@ -15496,7 +15157,7 @@
         <v>40212</v>
       </c>
       <c r="D107" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E107" t="n">
         <v>1</v>
@@ -15513,7 +15174,7 @@
         <v>40253</v>
       </c>
       <c r="D108" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E108" t="n">
         <v>2</v>
@@ -15530,7 +15191,7 @@
         <v>40257</v>
       </c>
       <c r="D109" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E109" t="n">
         <v>3</v>
@@ -15547,7 +15208,7 @@
         <v>40458</v>
       </c>
       <c r="D110" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E110" t="n">
         <v>3</v>
@@ -15564,7 +15225,7 @@
         <v>40514</v>
       </c>
       <c r="D111" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E111" t="n">
         <v>2</v>
@@ -15581,7 +15242,7 @@
         <v>40517</v>
       </c>
       <c r="D112" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E112" t="n">
         <v>3</v>
@@ -15598,7 +15259,7 @@
         <v>40545</v>
       </c>
       <c r="D113" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E113" t="n">
         <v>1</v>
@@ -15615,7 +15276,7 @@
         <v>40549</v>
       </c>
       <c r="D114" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E114" t="n">
         <v>2</v>
@@ -15632,7 +15293,7 @@
         <v>40609</v>
       </c>
       <c r="D115" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E115" t="n">
         <v>2</v>
@@ -15649,7 +15310,7 @@
         <v>40850</v>
       </c>
       <c r="D116" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E116" t="n">
         <v>2</v>
@@ -15666,7 +15327,7 @@
         <v>41196</v>
       </c>
       <c r="D117" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E117" t="n">
         <v>3</v>
@@ -15683,7 +15344,7 @@
         <v>41225</v>
       </c>
       <c r="D118" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E118" t="n">
         <v>2</v>
@@ -15700,7 +15361,7 @@
         <v>41264</v>
       </c>
       <c r="D119" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E119" t="n">
         <v>1</v>
@@ -15717,7 +15378,7 @@
         <v>41287</v>
       </c>
       <c r="D120" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E120" t="n">
         <v>1</v>
@@ -15734,7 +15395,7 @@
         <v>41318</v>
       </c>
       <c r="D121" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E121" t="n">
         <v>3</v>
@@ -15751,7 +15412,7 @@
         <v>41347</v>
       </c>
       <c r="D122" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E122" t="n">
         <v>3</v>
@@ -15768,7 +15429,7 @@
         <v>41915</v>
       </c>
       <c r="D123" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E123" t="n">
         <v>3</v>
@@ -15785,7 +15446,7 @@
         <v>41948</v>
       </c>
       <c r="D124" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E124" t="n">
         <v>2</v>
@@ -15802,7 +15463,7 @@
         <v>42414</v>
       </c>
       <c r="D125" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E125" t="n">
         <v>2</v>
@@ -15819,7 +15480,7 @@
         <v>42445</v>
       </c>
       <c r="D126" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E126" t="n">
         <v>2</v>
@@ -15836,7 +15497,7 @@
         <v>42658</v>
       </c>
       <c r="D127" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E127" t="n">
         <v>4</v>
@@ -15853,7 +15514,7 @@
         <v>42690</v>
       </c>
       <c r="D128" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E128" t="n">
         <v>4</v>
@@ -15870,7 +15531,7 @@
         <v>42709</v>
       </c>
       <c r="D129" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E129" t="n">
         <v>1</v>
@@ -15887,7 +15548,7 @@
         <v>42745</v>
       </c>
       <c r="D130" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E130" t="n">
         <v>2</v>
@@ -15904,7 +15565,7 @@
         <v>42748</v>
       </c>
       <c r="D131" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E131" t="n">
         <v>1</v>
@@ -15921,7 +15582,7 @@
         <v>42776</v>
       </c>
       <c r="D132" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E132" t="n">
         <v>2</v>
@@ -15938,7 +15599,7 @@
         <v>42807</v>
       </c>
       <c r="D133" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E133" t="n">
         <v>2</v>
@@ -15955,7 +15616,7 @@
         <v>43009</v>
       </c>
       <c r="D134" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E134" t="n">
         <v>1</v>
@@ -15972,7 +15633,7 @@
         <v>43024</v>
       </c>
       <c r="D135" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E135" t="n">
         <v>3</v>
@@ -15989,7 +15650,7 @@
         <v>43028</v>
       </c>
       <c r="D136" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E136" t="n">
         <v>3</v>
@@ -16006,7 +15667,7 @@
         <v>43038</v>
       </c>
       <c r="D137" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E137" t="n">
         <v>1</v>
@@ -16023,7 +15684,7 @@
         <v>43060</v>
       </c>
       <c r="D138" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E138" t="n">
         <v>3</v>
@@ -16040,7 +15701,7 @@
         <v>43065</v>
       </c>
       <c r="D139" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E139" t="n">
         <v>3</v>
@@ -16057,7 +15718,7 @@
         <v>43085</v>
       </c>
       <c r="D140" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E140" t="n">
         <v>1</v>
@@ -16074,7 +15735,7 @@
         <v>43096</v>
       </c>
       <c r="D141" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E141" t="n">
         <v>1</v>
@@ -16091,7 +15752,7 @@
         <v>43124</v>
       </c>
       <c r="D142" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E142" t="n">
         <v>1</v>
@@ -16108,7 +15769,7 @@
         <v>43185</v>
       </c>
       <c r="D143" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E143" t="n">
         <v>1</v>
@@ -16125,7 +15786,7 @@
         <v>43501</v>
       </c>
       <c r="D144" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E144" t="n">
         <v>3</v>
@@ -16142,7 +15803,7 @@
         <v>43549</v>
       </c>
       <c r="D145" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E145" t="n">
         <v>1</v>
@@ -16159,26 +15820,9 @@
         <v>44494</v>
       </c>
       <c r="D146" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E146" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B147" t="n">
-        <v>1</v>
-      </c>
-      <c r="C147" s="1" t="n">
-        <v>45297</v>
-      </c>
-      <c r="D147" t="s">
-        <v>139</v>
-      </c>
-      <c r="E147" t="n">
         <v>2</v>
       </c>
     </row>
@@ -16224,7 +15868,7 @@
         <v>35527</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E2" t="n">
         <v>3</v>
@@ -16241,7 +15885,7 @@
         <v>35538</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E3" t="n">
         <v>3</v>
@@ -16258,7 +15902,7 @@
         <v>35541</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
@@ -16275,7 +15919,7 @@
         <v>35563</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
@@ -16292,7 +15936,7 @@
         <v>35568</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>
@@ -16309,7 +15953,7 @@
         <v>35573</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E7" t="n">
         <v>3</v>
@@ -16326,7 +15970,7 @@
         <v>35595</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E8" t="n">
         <v>3</v>
@@ -16343,7 +15987,7 @@
         <v>35603</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
@@ -16360,7 +16004,7 @@
         <v>35626</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E10" t="n">
         <v>3</v>
@@ -16377,7 +16021,7 @@
         <v>35629</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E11" t="n">
         <v>2</v>
@@ -16394,7 +16038,7 @@
         <v>35637</v>
       </c>
       <c r="D12" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
@@ -16411,7 +16055,7 @@
         <v>35655</v>
       </c>
       <c r="D13" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -16428,7 +16072,7 @@
         <v>35668</v>
       </c>
       <c r="D14" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -16445,7 +16089,7 @@
         <v>35688</v>
       </c>
       <c r="D15" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E15" t="n">
         <v>3</v>
@@ -16462,7 +16106,7 @@
         <v>35702</v>
       </c>
       <c r="D16" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E16" t="n">
         <v>4</v>
@@ -16479,7 +16123,7 @@
         <v>35933</v>
       </c>
       <c r="D17" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E17" t="n">
         <v>3</v>
@@ -16496,7 +16140,7 @@
         <v>36265</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E18" t="n">
         <v>3</v>
@@ -16513,7 +16157,7 @@
         <v>36277</v>
       </c>
       <c r="D19" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E19" t="n">
         <v>2</v>
@@ -16530,7 +16174,7 @@
         <v>36280</v>
       </c>
       <c r="D20" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -16547,7 +16191,7 @@
         <v>36290</v>
       </c>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E21" t="n">
         <v>3</v>
@@ -16564,7 +16208,7 @@
         <v>36290</v>
       </c>
       <c r="D22" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E22" t="n">
         <v>3</v>
@@ -16581,7 +16225,7 @@
         <v>36313</v>
       </c>
       <c r="D23" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -16598,7 +16242,7 @@
         <v>36320</v>
       </c>
       <c r="D24" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E24" t="n">
         <v>3</v>
@@ -16615,7 +16259,7 @@
         <v>36320</v>
       </c>
       <c r="D25" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -16632,7 +16276,7 @@
         <v>36343</v>
       </c>
       <c r="D26" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E26" t="n">
         <v>2</v>
@@ -16649,7 +16293,7 @@
         <v>36350</v>
       </c>
       <c r="D27" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E27" t="n">
         <v>2</v>
@@ -16666,7 +16310,7 @@
         <v>36369</v>
       </c>
       <c r="D28" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
@@ -16683,7 +16327,7 @@
         <v>36374</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
@@ -16700,7 +16344,7 @@
         <v>36378</v>
       </c>
       <c r="D30" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E30" t="n">
         <v>3</v>
@@ -16717,7 +16361,7 @@
         <v>36404</v>
       </c>
       <c r="D31" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E31" t="n">
         <v>2</v>
@@ -16734,7 +16378,7 @@
         <v>36404</v>
       </c>
       <c r="D32" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
@@ -16751,7 +16395,7 @@
         <v>36425</v>
       </c>
       <c r="D33" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E33" t="n">
         <v>3</v>
@@ -16768,7 +16412,7 @@
         <v>36430</v>
       </c>
       <c r="D34" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E34" t="n">
         <v>2</v>
@@ -16785,7 +16429,7 @@
         <v>36644</v>
       </c>
       <c r="D35" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E35" t="n">
         <v>4</v>
@@ -16802,7 +16446,7 @@
         <v>36676</v>
       </c>
       <c r="D36" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E36" t="n">
         <v>2</v>
@@ -16819,7 +16463,7 @@
         <v>36704</v>
       </c>
       <c r="D37" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E37" t="n">
         <v>1</v>
@@ -16836,7 +16480,7 @@
         <v>36731</v>
       </c>
       <c r="D38" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E38" t="n">
         <v>2</v>
@@ -16853,7 +16497,7 @@
         <v>36731</v>
       </c>
       <c r="D39" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E39" t="n">
         <v>1</v>
@@ -16870,7 +16514,7 @@
         <v>36761</v>
       </c>
       <c r="D40" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E40" t="n">
         <v>2</v>
@@ -16887,7 +16531,7 @@
         <v>36786</v>
       </c>
       <c r="D41" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E41" t="n">
         <v>1</v>
@@ -16904,7 +16548,7 @@
         <v>36796</v>
       </c>
       <c r="D42" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E42" t="n">
         <v>1</v>
@@ -16921,7 +16565,7 @@
         <v>36797</v>
       </c>
       <c r="D43" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E43" t="n">
         <v>2</v>
@@ -16938,7 +16582,7 @@
         <v>37141</v>
       </c>
       <c r="D44" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E44" t="n">
         <v>2</v>
@@ -16955,7 +16599,7 @@
         <v>37372</v>
       </c>
       <c r="D45" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E45" t="n">
         <v>2</v>
@@ -16972,7 +16616,7 @@
         <v>37372</v>
       </c>
       <c r="D46" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E46" t="n">
         <v>1</v>
@@ -16989,7 +16633,7 @@
         <v>37401</v>
       </c>
       <c r="D47" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E47" t="n">
         <v>2</v>
@@ -17006,7 +16650,7 @@
         <v>37402</v>
       </c>
       <c r="D48" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E48" t="n">
         <v>3</v>
@@ -17023,7 +16667,7 @@
         <v>37429</v>
       </c>
       <c r="D49" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E49" t="n">
         <v>2</v>
@@ -17040,7 +16684,7 @@
         <v>37430</v>
       </c>
       <c r="D50" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E50" t="n">
         <v>2</v>
@@ -17057,7 +16701,7 @@
         <v>37459</v>
       </c>
       <c r="D51" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E51" t="n">
         <v>3</v>
@@ -17074,7 +16718,7 @@
         <v>37463</v>
       </c>
       <c r="D52" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E52" t="n">
         <v>1</v>
@@ -17091,7 +16735,7 @@
         <v>37490</v>
       </c>
       <c r="D53" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E53" t="n">
         <v>2</v>
@@ -17108,7 +16752,7 @@
         <v>37495</v>
       </c>
       <c r="D54" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E54" t="n">
         <v>2</v>
@@ -17125,7 +16769,7 @@
         <v>37501</v>
       </c>
       <c r="D55" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E55" t="n">
         <v>2</v>
@@ -17142,7 +16786,7 @@
         <v>37519</v>
       </c>
       <c r="D56" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E56" t="n">
         <v>3</v>
@@ -17159,7 +16803,7 @@
         <v>37522</v>
       </c>
       <c r="D57" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E57" t="n">
         <v>2</v>
@@ -17176,7 +16820,7 @@
         <v>37524</v>
       </c>
       <c r="D58" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E58" t="n">
         <v>2</v>
@@ -17193,7 +16837,7 @@
         <v>37717</v>
       </c>
       <c r="D59" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E59" t="n">
         <v>3</v>
@@ -17210,7 +16854,7 @@
         <v>37719</v>
       </c>
       <c r="D60" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E60" t="n">
         <v>3</v>
@@ -17227,7 +16871,7 @@
         <v>37731</v>
       </c>
       <c r="D61" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E61" t="n">
         <v>2</v>
@@ -17244,7 +16888,7 @@
         <v>37742</v>
       </c>
       <c r="D62" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E62" t="n">
         <v>3</v>
@@ -17261,7 +16905,7 @@
         <v>37753</v>
       </c>
       <c r="D63" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E63" t="n">
         <v>3</v>
@@ -17278,7 +16922,7 @@
         <v>37767</v>
       </c>
       <c r="D64" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E64" t="n">
         <v>1</v>
@@ -17295,7 +16939,7 @@
         <v>37769</v>
       </c>
       <c r="D65" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E65" t="n">
         <v>1</v>
@@ -17312,7 +16956,7 @@
         <v>37774</v>
       </c>
       <c r="D66" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E66" t="n">
         <v>3</v>
@@ -17329,7 +16973,7 @@
         <v>37780</v>
       </c>
       <c r="D67" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E67" t="n">
         <v>3</v>
@@ -17346,7 +16990,7 @@
         <v>37797</v>
       </c>
       <c r="D68" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E68" t="n">
         <v>2</v>
@@ -17363,7 +17007,7 @@
         <v>37802</v>
       </c>
       <c r="D69" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E69" t="n">
         <v>1</v>
@@ -17380,7 +17024,7 @@
         <v>37804</v>
       </c>
       <c r="D70" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E70" t="n">
         <v>2</v>
@@ -17397,7 +17041,7 @@
         <v>37810</v>
       </c>
       <c r="D71" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E71" t="n">
         <v>2</v>
@@ -17414,7 +17058,7 @@
         <v>37825</v>
       </c>
       <c r="D72" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E72" t="n">
         <v>3</v>
@@ -17431,7 +17075,7 @@
         <v>37830</v>
       </c>
       <c r="D73" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E73" t="n">
         <v>3</v>
@@ -17448,7 +17092,7 @@
         <v>37837</v>
       </c>
       <c r="D74" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E74" t="n">
         <v>4</v>
@@ -17465,7 +17109,7 @@
         <v>37844</v>
       </c>
       <c r="D75" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E75" t="n">
         <v>3</v>
@@ -17482,7 +17126,7 @@
         <v>37857</v>
       </c>
       <c r="D76" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E76" t="n">
         <v>2</v>
@@ -17499,7 +17143,7 @@
         <v>37865</v>
       </c>
       <c r="D77" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E77" t="n">
         <v>2</v>
@@ -17516,7 +17160,7 @@
         <v>37873</v>
       </c>
       <c r="D78" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E78" t="n">
         <v>1</v>
@@ -17533,7 +17177,7 @@
         <v>38492</v>
       </c>
       <c r="D79" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E79" t="n">
         <v>2</v>
@@ -17550,7 +17194,7 @@
         <v>38503</v>
       </c>
       <c r="D80" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E80" t="n">
         <v>2</v>
@@ -17567,7 +17211,7 @@
         <v>38525</v>
       </c>
       <c r="D81" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E81" t="n">
         <v>3</v>
@@ -17584,7 +17228,7 @@
         <v>38533</v>
       </c>
       <c r="D82" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E82" t="n">
         <v>2</v>
@@ -17601,7 +17245,7 @@
         <v>38555</v>
       </c>
       <c r="D83" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E83" t="n">
         <v>3</v>
@@ -17618,7 +17262,7 @@
         <v>38593</v>
       </c>
       <c r="D84" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E84" t="n">
         <v>4</v>
@@ -17635,7 +17279,7 @@
         <v>38620</v>
       </c>
       <c r="D85" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E85" t="n">
         <v>2</v>
@@ -17652,7 +17296,7 @@
         <v>39562</v>
       </c>
       <c r="D86" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E86" t="n">
         <v>2</v>
@@ -17669,7 +17313,7 @@
         <v>39595</v>
       </c>
       <c r="D87" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E87" t="n">
         <v>2</v>
@@ -17686,7 +17330,7 @@
         <v>39627</v>
       </c>
       <c r="D88" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E88" t="n">
         <v>4</v>
@@ -17703,7 +17347,7 @@
         <v>39660</v>
       </c>
       <c r="D89" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E89" t="n">
         <v>2</v>
@@ -17720,7 +17364,7 @@
         <v>39690</v>
       </c>
       <c r="D90" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E90" t="n">
         <v>3</v>
@@ -17737,7 +17381,7 @@
         <v>39934</v>
       </c>
       <c r="D91" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E91" t="n">
         <v>2</v>
@@ -17754,7 +17398,7 @@
         <v>39964</v>
       </c>
       <c r="D92" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E92" t="n">
         <v>1</v>
@@ -17771,7 +17415,7 @@
         <v>40024</v>
       </c>
       <c r="D93" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E93" t="n">
         <v>1</v>
@@ -17788,7 +17432,7 @@
         <v>40055</v>
       </c>
       <c r="D94" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E94" t="n">
         <v>2</v>
@@ -17805,7 +17449,7 @@
         <v>40083</v>
       </c>
       <c r="D95" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E95" t="n">
         <v>2</v>
@@ -17822,7 +17466,7 @@
         <v>40284</v>
       </c>
       <c r="D96" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E96" t="n">
         <v>2</v>
@@ -17839,7 +17483,7 @@
         <v>40285</v>
       </c>
       <c r="D97" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E97" t="n">
         <v>2</v>
@@ -17856,7 +17500,7 @@
         <v>40307</v>
       </c>
       <c r="D98" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E98" t="n">
         <v>2</v>
@@ -17873,7 +17517,7 @@
         <v>40315</v>
       </c>
       <c r="D99" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E99" t="n">
         <v>1</v>
@@ -17890,7 +17534,7 @@
         <v>40320</v>
       </c>
       <c r="D100" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E100" t="n">
         <v>1</v>
@@ -17907,7 +17551,7 @@
         <v>40344</v>
       </c>
       <c r="D101" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E101" t="n">
         <v>1</v>
@@ -17924,7 +17568,7 @@
         <v>40346</v>
       </c>
       <c r="D102" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E102" t="n">
         <v>1</v>
@@ -17941,7 +17585,7 @@
         <v>40346</v>
       </c>
       <c r="D103" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E103" t="n">
         <v>3</v>
@@ -17958,7 +17602,7 @@
         <v>40368</v>
       </c>
       <c r="D104" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E104" t="n">
         <v>3</v>
@@ -17975,7 +17619,7 @@
         <v>40425</v>
       </c>
       <c r="D105" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -17992,7 +17636,7 @@
         <v>40642</v>
       </c>
       <c r="D106" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E106" t="n">
         <v>3</v>
@@ -18009,7 +17653,7 @@
         <v>40691</v>
       </c>
       <c r="D107" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E107" t="n">
         <v>2</v>
@@ -18026,7 +17670,7 @@
         <v>40722</v>
       </c>
       <c r="D108" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E108" t="n">
         <v>2</v>
@@ -18043,7 +17687,7 @@
         <v>40787</v>
       </c>
       <c r="D109" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E109" t="n">
         <v>2</v>
@@ -18060,7 +17704,7 @@
         <v>41076</v>
       </c>
       <c r="D110" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E110" t="n">
         <v>3</v>
@@ -18077,7 +17721,7 @@
         <v>41107</v>
       </c>
       <c r="D111" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E111" t="n">
         <v>3</v>
@@ -18094,7 +17738,7 @@
         <v>41137</v>
       </c>
       <c r="D112" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E112" t="n">
         <v>2</v>
@@ -18111,7 +17755,7 @@
         <v>41167</v>
       </c>
       <c r="D113" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E113" t="n">
         <v>2</v>
@@ -18128,7 +17772,7 @@
         <v>41378</v>
       </c>
       <c r="D114" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E114" t="n">
         <v>2</v>
@@ -18145,7 +17789,7 @@
         <v>41406</v>
       </c>
       <c r="D115" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E115" t="n">
         <v>2</v>
@@ -18162,7 +17806,7 @@
         <v>41435</v>
       </c>
       <c r="D116" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E116" t="n">
         <v>4</v>
@@ -18179,7 +17823,7 @@
         <v>41730</v>
       </c>
       <c r="D117" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E117" t="n">
         <v>2</v>
@@ -18196,7 +17840,7 @@
         <v>41758</v>
       </c>
       <c r="D118" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E118" t="n">
         <v>3</v>
@@ -18213,7 +17857,7 @@
         <v>41791</v>
       </c>
       <c r="D119" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E119" t="n">
         <v>4</v>
@@ -18230,7 +17874,7 @@
         <v>41823</v>
       </c>
       <c r="D120" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E120" t="n">
         <v>4</v>
@@ -18247,7 +17891,7 @@
         <v>41854</v>
       </c>
       <c r="D121" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E121" t="n">
         <v>3</v>
@@ -18264,7 +17908,7 @@
         <v>41885</v>
       </c>
       <c r="D122" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E122" t="n">
         <v>2</v>
@@ -18281,7 +17925,7 @@
         <v>42474</v>
       </c>
       <c r="D123" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E123" t="n">
         <v>2</v>
@@ -18298,7 +17942,7 @@
         <v>42535</v>
       </c>
       <c r="D124" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E124" t="n">
         <v>2</v>
@@ -18315,7 +17959,7 @@
         <v>42565</v>
       </c>
       <c r="D125" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E125" t="n">
         <v>1</v>
@@ -18332,7 +17976,7 @@
         <v>42596</v>
       </c>
       <c r="D126" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E126" t="n">
         <v>1</v>
@@ -18349,7 +17993,7 @@
         <v>42598</v>
       </c>
       <c r="D127" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E127" t="n">
         <v>3</v>
@@ -18366,7 +18010,7 @@
         <v>42601</v>
       </c>
       <c r="D128" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E128" t="n">
         <v>2</v>
@@ -18383,7 +18027,7 @@
         <v>42624</v>
       </c>
       <c r="D129" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E129" t="n">
         <v>1</v>
@@ -18400,7 +18044,7 @@
         <v>42626</v>
       </c>
       <c r="D130" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E130" t="n">
         <v>2</v>
@@ -18417,7 +18061,7 @@
         <v>42628</v>
       </c>
       <c r="D131" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E131" t="n">
         <v>4</v>
@@ -18434,7 +18078,7 @@
         <v>42631</v>
       </c>
       <c r="D132" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E132" t="n">
         <v>2</v>
@@ -18451,7 +18095,7 @@
         <v>42839</v>
       </c>
       <c r="D133" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E133" t="n">
         <v>1</v>
@@ -18468,7 +18112,7 @@
         <v>42871</v>
       </c>
       <c r="D134" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E134" t="n">
         <v>1</v>
@@ -18485,7 +18129,7 @@
         <v>42927</v>
       </c>
       <c r="D135" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E135" t="n">
         <v>1</v>
@@ -18502,7 +18146,7 @@
         <v>42944</v>
       </c>
       <c r="D136" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E136" t="n">
         <v>2</v>
@@ -18519,7 +18163,7 @@
         <v>42962</v>
       </c>
       <c r="D137" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E137" t="n">
         <v>2</v>
@@ -18536,7 +18180,7 @@
         <v>42975</v>
       </c>
       <c r="D138" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E138" t="n">
         <v>1</v>
@@ -18553,7 +18197,7 @@
         <v>42993</v>
       </c>
       <c r="D139" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E139" t="n">
         <v>1</v>
@@ -18570,7 +18214,7 @@
         <v>43194</v>
       </c>
       <c r="D140" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E140" t="n">
         <v>2</v>
@@ -18587,7 +18231,7 @@
         <v>43578</v>
       </c>
       <c r="D141" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E141" t="n">
         <v>1</v>
@@ -18604,7 +18248,7 @@
         <v>43586</v>
       </c>
       <c r="D142" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E142" t="n">
         <v>1</v>
@@ -18621,7 +18265,7 @@
         <v>43610</v>
       </c>
       <c r="D143" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E143" t="n">
         <v>1</v>
@@ -18638,7 +18282,7 @@
         <v>43610</v>
       </c>
       <c r="D144" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E144" t="n">
         <v>2</v>
@@ -18655,7 +18299,7 @@
         <v>43645</v>
       </c>
       <c r="D145" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E145" t="n">
         <v>3</v>
@@ -18672,7 +18316,7 @@
         <v>43660</v>
       </c>
       <c r="D146" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E146" t="n">
         <v>2</v>
@@ -18689,7 +18333,7 @@
         <v>43719</v>
       </c>
       <c r="D147" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E147" t="n">
         <v>2</v>
@@ -18706,7 +18350,7 @@
         <v>44425</v>
       </c>
       <c r="D148" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E148" t="n">
         <v>1</v>
@@ -18754,7 +18398,7 @@
         <v>35111</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E2" t="n">
         <v>3</v>
@@ -18771,7 +18415,7 @@
         <v>35119</v>
       </c>
       <c r="D3" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -18788,7 +18432,7 @@
         <v>35133</v>
       </c>
       <c r="D4" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
@@ -18805,7 +18449,7 @@
         <v>35142</v>
       </c>
       <c r="D5" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E5" t="n">
         <v>3</v>
@@ -18822,7 +18466,7 @@
         <v>35347</v>
       </c>
       <c r="D6" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -18839,7 +18483,7 @@
         <v>35359</v>
       </c>
       <c r="D7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -18856,7 +18500,7 @@
         <v>35380</v>
       </c>
       <c r="D8" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -18873,7 +18517,7 @@
         <v>35388</v>
       </c>
       <c r="D9" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
@@ -18890,7 +18534,7 @@
         <v>35407</v>
       </c>
       <c r="D10" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -18907,7 +18551,7 @@
         <v>35417</v>
       </c>
       <c r="D11" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E11" t="n">
         <v>2</v>
@@ -18924,7 +18568,7 @@
         <v>35440</v>
       </c>
       <c r="D12" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E12" t="n">
         <v>3</v>
@@ -18941,7 +18585,7 @@
         <v>35447</v>
       </c>
       <c r="D13" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E13" t="n">
         <v>2</v>
@@ -18958,7 +18602,7 @@
         <v>35463</v>
       </c>
       <c r="D14" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -18975,7 +18619,7 @@
         <v>35491</v>
       </c>
       <c r="D15" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E15" t="n">
         <v>2</v>
@@ -18992,7 +18636,7 @@
         <v>36093</v>
       </c>
       <c r="D16" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E16" t="n">
         <v>3</v>
@@ -19009,7 +18653,7 @@
         <v>36129</v>
       </c>
       <c r="D17" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E17" t="n">
         <v>3</v>
@@ -19026,7 +18670,7 @@
         <v>36199</v>
       </c>
       <c r="D18" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E18" t="n">
         <v>3</v>
@@ -19043,7 +18687,7 @@
         <v>36235</v>
       </c>
       <c r="D19" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -19060,7 +18704,7 @@
         <v>36434</v>
       </c>
       <c r="D20" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E20" t="n">
         <v>3</v>
@@ -19077,7 +18721,7 @@
         <v>36466</v>
       </c>
       <c r="D21" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E21" t="n">
         <v>3</v>
@@ -19094,7 +18738,7 @@
         <v>36499</v>
       </c>
       <c r="D22" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E22" t="n">
         <v>3</v>
@@ -19111,7 +18755,7 @@
         <v>36535</v>
       </c>
       <c r="D23" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E23" t="n">
         <v>3</v>
@@ -19128,7 +18772,7 @@
         <v>36570</v>
       </c>
       <c r="D24" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E24" t="n">
         <v>3</v>
@@ -19145,7 +18789,7 @@
         <v>36605</v>
       </c>
       <c r="D25" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E25" t="n">
         <v>2</v>
@@ -19162,7 +18806,7 @@
         <v>36809</v>
       </c>
       <c r="D26" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E26" t="n">
         <v>3</v>
@@ -19179,7 +18823,7 @@
         <v>36831</v>
       </c>
       <c r="D27" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E27" t="n">
         <v>2</v>
@@ -19196,7 +18840,7 @@
         <v>36835</v>
       </c>
       <c r="D28" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E28" t="n">
         <v>3</v>
@@ -19213,7 +18857,7 @@
         <v>36853</v>
       </c>
       <c r="D29" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E29" t="n">
         <v>2</v>
@@ -19230,7 +18874,7 @@
         <v>36868</v>
       </c>
       <c r="D30" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E30" t="n">
         <v>2</v>
@@ -19247,7 +18891,7 @@
         <v>36869</v>
       </c>
       <c r="D31" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
@@ -19264,7 +18908,7 @@
         <v>36890</v>
       </c>
       <c r="D32" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E32" t="n">
         <v>3</v>
@@ -19281,7 +18925,7 @@
         <v>36896</v>
       </c>
       <c r="D33" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E33" t="n">
         <v>2</v>
@@ -19298,7 +18942,7 @@
         <v>36901</v>
       </c>
       <c r="D34" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E34" t="n">
         <v>2</v>
@@ -19315,7 +18959,7 @@
         <v>36921</v>
       </c>
       <c r="D35" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E35" t="n">
         <v>3</v>
@@ -19332,7 +18976,7 @@
         <v>36932</v>
       </c>
       <c r="D36" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E36" t="n">
         <v>3</v>
@@ -19349,7 +18993,7 @@
         <v>36975</v>
       </c>
       <c r="D37" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E37" t="n">
         <v>2</v>
@@ -19366,7 +19010,7 @@
         <v>36980</v>
       </c>
       <c r="D38" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E38" t="n">
         <v>4</v>
@@ -19383,7 +19027,7 @@
         <v>37180</v>
       </c>
       <c r="D39" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E39" t="n">
         <v>2</v>
@@ -19400,7 +19044,7 @@
         <v>37184</v>
       </c>
       <c r="D40" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E40" t="n">
         <v>3</v>
@@ -19417,7 +19061,7 @@
         <v>37211</v>
       </c>
       <c r="D41" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E41" t="n">
         <v>2</v>
@@ -19434,7 +19078,7 @@
         <v>37243</v>
       </c>
       <c r="D42" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E42" t="n">
         <v>3</v>
@@ -19451,7 +19095,7 @@
         <v>37537</v>
       </c>
       <c r="D43" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E43" t="n">
         <v>1</v>
@@ -19468,7 +19112,7 @@
         <v>37558</v>
       </c>
       <c r="D44" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E44" t="n">
         <v>2</v>
@@ -19485,7 +19129,7 @@
         <v>37591</v>
       </c>
       <c r="D45" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E45" t="n">
         <v>3</v>
@@ -19502,7 +19146,7 @@
         <v>37626</v>
       </c>
       <c r="D46" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E46" t="n">
         <v>3</v>
@@ -19519,7 +19163,7 @@
         <v>37656</v>
       </c>
       <c r="D47" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E47" t="n">
         <v>2</v>
@@ -19536,7 +19180,7 @@
         <v>37692</v>
       </c>
       <c r="D48" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E48" t="n">
         <v>3</v>
@@ -19553,7 +19197,7 @@
         <v>39356</v>
       </c>
       <c r="D49" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E49" t="n">
         <v>4</v>
@@ -19570,7 +19214,7 @@
         <v>39388</v>
       </c>
       <c r="D50" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E50" t="n">
         <v>1</v>
@@ -19587,7 +19231,7 @@
         <v>39423</v>
       </c>
       <c r="D51" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E51" t="n">
         <v>3</v>
@@ -19604,7 +19248,7 @@
         <v>39452</v>
       </c>
       <c r="D52" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E52" t="n">
         <v>2</v>
@@ -19621,7 +19265,7 @@
         <v>39483</v>
       </c>
       <c r="D53" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E53" t="n">
         <v>2</v>
@@ -19638,7 +19282,7 @@
         <v>39515</v>
       </c>
       <c r="D54" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E54" t="n">
         <v>4</v>
@@ -19655,7 +19299,7 @@
         <v>39760</v>
       </c>
       <c r="D55" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E55" t="n">
         <v>1</v>
@@ -19672,7 +19316,7 @@
         <v>40115</v>
       </c>
       <c r="D56" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E56" t="n">
         <v>1</v>
@@ -19689,7 +19333,7 @@
         <v>41184</v>
       </c>
       <c r="D57" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E57" t="n">
         <v>2</v>
@@ -19706,7 +19350,7 @@
         <v>41214</v>
       </c>
       <c r="D58" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E58" t="n">
         <v>2</v>
@@ -19723,7 +19367,7 @@
         <v>41228</v>
       </c>
       <c r="D59" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E59" t="n">
         <v>2</v>
@@ -19740,7 +19384,7 @@
         <v>41246</v>
       </c>
       <c r="D60" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E60" t="n">
         <v>1</v>
@@ -19757,7 +19401,7 @@
         <v>41275</v>
       </c>
       <c r="D61" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E61" t="n">
         <v>1</v>
@@ -19774,7 +19418,7 @@
         <v>41305</v>
       </c>
       <c r="D62" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E62" t="n">
         <v>3</v>
@@ -19791,7 +19435,7 @@
         <v>41327</v>
       </c>
       <c r="D63" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E63" t="n">
         <v>2</v>
@@ -19808,7 +19452,7 @@
         <v>41336</v>
       </c>
       <c r="D64" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E64" t="n">
         <v>2</v>
@@ -19825,7 +19469,7 @@
         <v>41357</v>
       </c>
       <c r="D65" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E65" t="n">
         <v>2</v>
@@ -19842,7 +19486,7 @@
         <v>41552</v>
       </c>
       <c r="D66" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E66" t="n">
         <v>2</v>
@@ -19859,7 +19503,7 @@
         <v>41916</v>
       </c>
       <c r="D67" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E67" t="n">
         <v>2</v>
@@ -19876,7 +19520,7 @@
         <v>41917</v>
       </c>
       <c r="D68" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E68" t="n">
         <v>3</v>
@@ -19893,7 +19537,7 @@
         <v>41975</v>
       </c>
       <c r="D69" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E69" t="n">
         <v>3</v>
@@ -19910,7 +19554,7 @@
         <v>41988</v>
       </c>
       <c r="D70" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E70" t="n">
         <v>2</v>
@@ -19927,7 +19571,7 @@
         <v>42005</v>
       </c>
       <c r="D71" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E71" t="n">
         <v>1</v>
@@ -19944,7 +19588,7 @@
         <v>42035</v>
       </c>
       <c r="D72" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E72" t="n">
         <v>2</v>
@@ -19961,7 +19605,7 @@
         <v>42283</v>
       </c>
       <c r="D73" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E73" t="n">
         <v>2</v>
@@ -19978,7 +19622,7 @@
         <v>42333</v>
       </c>
       <c r="D74" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E74" t="n">
         <v>3</v>
@@ -19995,7 +19639,7 @@
         <v>42357</v>
       </c>
       <c r="D75" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E75" t="n">
         <v>2</v>
@@ -20012,7 +19656,7 @@
         <v>42360</v>
       </c>
       <c r="D76" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E76" t="n">
         <v>2</v>
@@ -20029,7 +19673,7 @@
         <v>42387</v>
       </c>
       <c r="D77" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E77" t="n">
         <v>2</v>
@@ -20046,7 +19690,7 @@
         <v>42395</v>
       </c>
       <c r="D78" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E78" t="n">
         <v>2</v>
@@ -20063,7 +19707,7 @@
         <v>42657</v>
       </c>
       <c r="D79" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E79" t="n">
         <v>2</v>
@@ -20080,7 +19724,7 @@
         <v>43060</v>
       </c>
       <c r="D80" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E80" t="n">
         <v>3</v>
@@ -20097,7 +19741,7 @@
         <v>43088</v>
       </c>
       <c r="D81" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E81" t="n">
         <v>3</v>
@@ -20114,7 +19758,7 @@
         <v>43122</v>
       </c>
       <c r="D82" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -20131,7 +19775,7 @@
         <v>43154</v>
       </c>
       <c r="D83" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E83" t="n">
         <v>2</v>
@@ -20148,7 +19792,7 @@
         <v>43185</v>
       </c>
       <c r="D84" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E84" t="n">
         <v>1</v>
@@ -20165,7 +19809,7 @@
         <v>43787</v>
       </c>
       <c r="D85" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E85" t="n">
         <v>3</v>
@@ -20182,7 +19826,7 @@
         <v>44489</v>
       </c>
       <c r="D86" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E86" t="n">
         <v>1</v>
@@ -20199,7 +19843,7 @@
         <v>44506</v>
       </c>
       <c r="D87" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E87" t="n">
         <v>1</v>
@@ -20216,95 +19860,10 @@
         <v>44572</v>
       </c>
       <c r="D88" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E88" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B89" t="n">
-        <v>11</v>
-      </c>
-      <c r="C89" s="1" t="n">
-        <v>45242</v>
-      </c>
-      <c r="D89" t="s">
-        <v>161</v>
-      </c>
-      <c r="E89" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B90" t="n">
-        <v>12</v>
-      </c>
-      <c r="C90" s="1" t="n">
-        <v>45277</v>
-      </c>
-      <c r="D90" t="s">
-        <v>161</v>
-      </c>
-      <c r="E90" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B91" t="n">
-        <v>1</v>
-      </c>
-      <c r="C91" s="1" t="n">
-        <v>45306</v>
-      </c>
-      <c r="D91" t="s">
-        <v>161</v>
-      </c>
-      <c r="E91" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B92" t="n">
-        <v>2</v>
-      </c>
-      <c r="C92" s="1" t="n">
-        <v>45336</v>
-      </c>
-      <c r="D92" t="s">
-        <v>161</v>
-      </c>
-      <c r="E92" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B93" t="n">
-        <v>3</v>
-      </c>
-      <c r="C93" s="1" t="n">
-        <v>45358</v>
-      </c>
-      <c r="D93" t="s">
-        <v>162</v>
-      </c>
-      <c r="E93" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -20349,7 +19908,7 @@
         <v>35164</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E2" t="n">
         <v>3</v>
@@ -20366,7 +19925,7 @@
         <v>35169</v>
       </c>
       <c r="D3" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E3" t="n">
         <v>3</v>
@@ -20383,7 +19942,7 @@
         <v>35194</v>
       </c>
       <c r="D4" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
@@ -20400,7 +19959,7 @@
         <v>35199</v>
       </c>
       <c r="D5" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E5" t="n">
         <v>3</v>
@@ -20417,7 +19976,7 @@
         <v>35229</v>
       </c>
       <c r="D6" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E6" t="n">
         <v>3</v>
@@ -20434,7 +19993,7 @@
         <v>35240</v>
       </c>
       <c r="D7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E7" t="n">
         <v>3</v>
@@ -20451,7 +20010,7 @@
         <v>35258</v>
       </c>
       <c r="D8" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E8" t="n">
         <v>3</v>
@@ -20468,7 +20027,7 @@
         <v>35270</v>
       </c>
       <c r="D9" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
@@ -20485,7 +20044,7 @@
         <v>35289</v>
       </c>
       <c r="D10" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -20502,7 +20061,7 @@
         <v>35302</v>
       </c>
       <c r="D11" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E11" t="n">
         <v>2</v>
@@ -20519,7 +20078,7 @@
         <v>35318</v>
       </c>
       <c r="D12" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
@@ -20536,7 +20095,7 @@
         <v>35331</v>
       </c>
       <c r="D13" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -20553,7 +20112,7 @@
         <v>35552</v>
       </c>
       <c r="D14" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E14" t="n">
         <v>3</v>
@@ -20570,7 +20129,7 @@
         <v>35580</v>
       </c>
       <c r="D15" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E15" t="n">
         <v>4</v>
@@ -20587,7 +20146,7 @@
         <v>36266</v>
       </c>
       <c r="D16" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E16" t="n">
         <v>3</v>
@@ -20604,7 +20163,7 @@
         <v>36297</v>
       </c>
       <c r="D17" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E17" t="n">
         <v>3</v>
@@ -20621,7 +20180,7 @@
         <v>36329</v>
       </c>
       <c r="D18" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -20638,7 +20197,7 @@
         <v>36367</v>
       </c>
       <c r="D19" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -20655,7 +20214,7 @@
         <v>36398</v>
       </c>
       <c r="D20" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E20" t="n">
         <v>3</v>
@@ -20672,7 +20231,7 @@
         <v>36637</v>
       </c>
       <c r="D21" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E21" t="n">
         <v>3</v>
@@ -20689,7 +20248,7 @@
         <v>36676</v>
       </c>
       <c r="D22" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E22" t="n">
         <v>2</v>
@@ -20706,7 +20265,7 @@
         <v>36710</v>
       </c>
       <c r="D23" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E23" t="n">
         <v>2</v>
@@ -20723,7 +20282,7 @@
         <v>36745</v>
       </c>
       <c r="D24" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E24" t="n">
         <v>3</v>
@@ -20740,7 +20299,7 @@
         <v>36779</v>
       </c>
       <c r="D25" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E25" t="n">
         <v>3</v>
@@ -20757,7 +20316,7 @@
         <v>36795</v>
       </c>
       <c r="D26" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E26" t="n">
         <v>3</v>
@@ -20774,7 +20333,7 @@
         <v>36994</v>
       </c>
       <c r="D27" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E27" t="n">
         <v>3</v>
@@ -20791,7 +20350,7 @@
         <v>37005</v>
       </c>
       <c r="D28" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
@@ -20808,7 +20367,7 @@
         <v>37009</v>
       </c>
       <c r="D29" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E29" t="n">
         <v>2</v>
@@ -20825,7 +20384,7 @@
         <v>37027</v>
       </c>
       <c r="D30" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E30" t="n">
         <v>3</v>
@@ -20842,7 +20401,7 @@
         <v>37040</v>
       </c>
       <c r="D31" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E31" t="n">
         <v>2</v>
@@ -20859,7 +20418,7 @@
         <v>37070</v>
       </c>
       <c r="D32" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
@@ -20876,7 +20435,7 @@
         <v>37085</v>
       </c>
       <c r="D33" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E33" t="n">
         <v>2</v>
@@ -20893,7 +20452,7 @@
         <v>37086</v>
       </c>
       <c r="D34" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E34" t="n">
         <v>2</v>
@@ -20910,7 +20469,7 @@
         <v>37101</v>
       </c>
       <c r="D35" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E35" t="n">
         <v>2</v>
@@ -20927,7 +20486,7 @@
         <v>37121</v>
       </c>
       <c r="D36" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E36" t="n">
         <v>3</v>
@@ -20944,7 +20503,7 @@
         <v>37149</v>
       </c>
       <c r="D37" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E37" t="n">
         <v>3</v>
@@ -20961,7 +20520,7 @@
         <v>37150</v>
       </c>
       <c r="D38" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E38" t="n">
         <v>3</v>
@@ -20978,7 +20537,7 @@
         <v>37389</v>
       </c>
       <c r="D39" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E39" t="n">
         <v>2</v>
@@ -20995,7 +20554,7 @@
         <v>37423</v>
       </c>
       <c r="D40" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E40" t="n">
         <v>3</v>
@@ -21012,7 +20571,7 @@
         <v>37458</v>
       </c>
       <c r="D41" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E41" t="n">
         <v>3</v>
@@ -21029,7 +20588,7 @@
         <v>37498</v>
       </c>
       <c r="D42" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E42" t="n">
         <v>3</v>
@@ -21046,7 +20605,7 @@
         <v>37726</v>
       </c>
       <c r="D43" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E43" t="n">
         <v>2</v>
@@ -21063,7 +20622,7 @@
         <v>37763</v>
       </c>
       <c r="D44" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E44" t="n">
         <v>2</v>
@@ -21080,7 +20639,7 @@
         <v>39182</v>
       </c>
       <c r="D45" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E45" t="n">
         <v>2</v>
@@ -21097,7 +20656,7 @@
         <v>39219</v>
       </c>
       <c r="D46" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E46" t="n">
         <v>2</v>
@@ -21114,7 +20673,7 @@
         <v>39253</v>
       </c>
       <c r="D47" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E47" t="n">
         <v>3</v>
@@ -21131,7 +20690,7 @@
         <v>39288</v>
       </c>
       <c r="D48" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E48" t="n">
         <v>1</v>
@@ -21148,7 +20707,7 @@
         <v>39317</v>
       </c>
       <c r="D49" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E49" t="n">
         <v>2</v>
@@ -21165,7 +20724,7 @@
         <v>39545</v>
       </c>
       <c r="D50" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E50" t="n">
         <v>2</v>
@@ -21182,7 +20741,7 @@
         <v>39577</v>
       </c>
       <c r="D51" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E51" t="n">
         <v>2</v>
@@ -21199,7 +20758,7 @@
         <v>39609</v>
       </c>
       <c r="D52" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E52" t="n">
         <v>2</v>
@@ -21216,7 +20775,7 @@
         <v>39709</v>
       </c>
       <c r="D53" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E53" t="n">
         <v>2</v>
@@ -21233,7 +20792,7 @@
         <v>40032</v>
       </c>
       <c r="D54" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="E54" t="n">
         <v>2</v>
@@ -21250,7 +20809,7 @@
         <v>40324</v>
       </c>
       <c r="D55" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E55" t="n">
         <v>2</v>
@@ -21267,7 +20826,7 @@
         <v>41096</v>
       </c>
       <c r="D56" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E56" t="n">
         <v>2</v>
@@ -21284,7 +20843,7 @@
         <v>41096</v>
       </c>
       <c r="D57" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E57" t="n">
         <v>1</v>
@@ -21301,7 +20860,7 @@
         <v>41155</v>
       </c>
       <c r="D58" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E58" t="n">
         <v>3</v>
@@ -21318,7 +20877,7 @@
         <v>41155</v>
       </c>
       <c r="D59" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E59" t="n">
         <v>1</v>
@@ -21335,7 +20894,7 @@
         <v>41409</v>
       </c>
       <c r="D60" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E60" t="n">
         <v>1</v>
@@ -21352,7 +20911,7 @@
         <v>41426</v>
       </c>
       <c r="D61" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E61" t="n">
         <v>1</v>
@@ -21369,7 +20928,7 @@
         <v>41485</v>
       </c>
       <c r="D62" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E62" t="n">
         <v>1</v>
@@ -21386,7 +20945,7 @@
         <v>41490</v>
       </c>
       <c r="D63" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E63" t="n">
         <v>1</v>
@@ -21403,7 +20962,7 @@
         <v>41514</v>
       </c>
       <c r="D64" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E64" t="n">
         <v>1</v>
@@ -21420,7 +20979,7 @@
         <v>41518</v>
       </c>
       <c r="D65" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E65" t="n">
         <v>2</v>
@@ -21437,7 +20996,7 @@
         <v>41859</v>
       </c>
       <c r="D66" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E66" t="n">
         <v>2</v>
@@ -21454,7 +21013,7 @@
         <v>41881</v>
       </c>
       <c r="D67" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E67" t="n">
         <v>3</v>
@@ -21471,7 +21030,7 @@
         <v>42109</v>
       </c>
       <c r="D68" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E68" t="n">
         <v>3</v>
@@ -21488,7 +21047,7 @@
         <v>42122</v>
       </c>
       <c r="D69" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E69" t="n">
         <v>2</v>
@@ -21505,7 +21064,7 @@
         <v>42141</v>
       </c>
       <c r="D70" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E70" t="n">
         <v>2</v>
@@ -21522,7 +21081,7 @@
         <v>42183</v>
       </c>
       <c r="D71" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E71" t="n">
         <v>1</v>
@@ -21539,7 +21098,7 @@
         <v>42240</v>
       </c>
       <c r="D72" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E72" t="n">
         <v>1</v>
@@ -21556,7 +21115,7 @@
         <v>42255</v>
       </c>
       <c r="D73" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E73" t="n">
         <v>3</v>
@@ -21573,7 +21132,7 @@
         <v>42274</v>
       </c>
       <c r="D74" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E74" t="n">
         <v>1</v>
@@ -21590,7 +21149,7 @@
         <v>42461</v>
       </c>
       <c r="D75" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E75" t="n">
         <v>1</v>
@@ -21607,7 +21166,7 @@
         <v>42475</v>
       </c>
       <c r="D76" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -21624,7 +21183,7 @@
         <v>42509</v>
       </c>
       <c r="D77" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E77" t="n">
         <v>3</v>
@@ -21641,7 +21200,7 @@
         <v>42582</v>
       </c>
       <c r="D78" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E78" t="n">
         <v>1</v>
@@ -21658,7 +21217,7 @@
         <v>42619</v>
       </c>
       <c r="D79" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E79" t="n">
         <v>1</v>
@@ -21675,7 +21234,7 @@
         <v>43217</v>
       </c>
       <c r="D80" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E80" t="n">
         <v>4</v>
@@ -21692,7 +21251,7 @@
         <v>43249</v>
       </c>
       <c r="D81" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E81" t="n">
         <v>2</v>
@@ -21709,7 +21268,7 @@
         <v>43279</v>
       </c>
       <c r="D82" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -21726,7 +21285,7 @@
         <v>44462</v>
       </c>
       <c r="D83" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E83" t="n">
         <v>2</v>
@@ -21743,129 +21302,10 @@
         <v>44768</v>
       </c>
       <c r="D84" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E84" t="n">
         <v>2</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B85" t="n">
-        <v>7</v>
-      </c>
-      <c r="C85" s="1" t="n">
-        <v>45124</v>
-      </c>
-      <c r="D85" t="s">
-        <v>161</v>
-      </c>
-      <c r="E85" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B86" t="n">
-        <v>4</v>
-      </c>
-      <c r="C86" s="1" t="n">
-        <v>45389</v>
-      </c>
-      <c r="D86" t="s">
-        <v>162</v>
-      </c>
-      <c r="E86" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B87" t="n">
-        <v>4</v>
-      </c>
-      <c r="C87" s="1" t="n">
-        <v>45395</v>
-      </c>
-      <c r="D87" t="s">
-        <v>167</v>
-      </c>
-      <c r="E87" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B88" t="n">
-        <v>4</v>
-      </c>
-      <c r="C88" s="1" t="n">
-        <v>45399</v>
-      </c>
-      <c r="D88" t="s">
-        <v>161</v>
-      </c>
-      <c r="E88" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B89" t="n">
-        <v>5</v>
-      </c>
-      <c r="C89" s="1" t="n">
-        <v>45431</v>
-      </c>
-      <c r="D89" t="s">
-        <v>161</v>
-      </c>
-      <c r="E89" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B90" t="n">
-        <v>8</v>
-      </c>
-      <c r="C90" s="1" t="n">
-        <v>45508</v>
-      </c>
-      <c r="D90" t="s">
-        <v>162</v>
-      </c>
-      <c r="E90" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B91" t="n">
-        <v>9</v>
-      </c>
-      <c r="C91" s="1" t="n">
-        <v>45537</v>
-      </c>
-      <c r="D91" t="s">
-        <v>162</v>
-      </c>
-      <c r="E91" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
